--- a/BackTest/2019-10-15 BackTest XLM.xlsx
+++ b/BackTest/2019-10-15 BackTest XLM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.8999999999999915</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>74.45999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-19.99999999999886</v>
+      </c>
       <c r="L13" t="n">
         <v>74.43999999999998</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-19.99999999999886</v>
+      </c>
       <c r="L14" t="n">
         <v>74.41999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.200000000000003</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-59.99999999999943</v>
+      </c>
       <c r="L15" t="n">
         <v>74.37999999999998</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.300000000000011</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-50</v>
+      </c>
       <c r="L16" t="n">
         <v>74.30999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.40000000000002</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-24.99999999999956</v>
+      </c>
       <c r="L17" t="n">
         <v>74.28</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>24.99999999999956</v>
+      </c>
       <c r="L18" t="n">
         <v>74.28</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.700000000000017</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>24.99999999999956</v>
+      </c>
       <c r="L19" t="n">
         <v>74.30999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.700000000000017</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>24.99999999999956</v>
+      </c>
       <c r="L20" t="n">
         <v>74.33</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.700000000000017</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>24.99999999999956</v>
+      </c>
       <c r="L21" t="n">
         <v>74.34999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.700000000000017</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>14.28571428571312</v>
+      </c>
       <c r="L22" t="n">
         <v>74.37</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.700000000000017</v>
       </c>
       <c r="K23" t="n">
-        <v>-5.882352941176077</v>
+        <v>14.28571428571312</v>
       </c>
       <c r="L23" t="n">
         <v>74.38000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>1.700000000000017</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.882352941176077</v>
+        <v>59.99999999999772</v>
       </c>
       <c r="L24" t="n">
         <v>74.39000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>1.800000000000011</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.11111111111041</v>
+        <v>60.00000000000227</v>
       </c>
       <c r="L25" t="n">
         <v>74.41</v>
@@ -1564,7 +1586,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="K26" t="n">
-        <v>-17.64705882352921</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L26" t="n">
         <v>74.45</v>
@@ -1613,7 +1635,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>74.47999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="K28" t="n">
-        <v>7.692307692307187</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>74.48999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="K29" t="n">
-        <v>27.2727272727268</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>74.48999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>2.100000000000009</v>
       </c>
       <c r="K30" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L30" t="n">
         <v>74.51000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>2.100000000000009</v>
       </c>
       <c r="K31" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L31" t="n">
         <v>74.53</v>
@@ -1860,7 +1882,7 @@
         <v>2.300000000000011</v>
       </c>
       <c r="K32" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>74.53</v>
@@ -1911,7 +1933,7 @@
         <v>2.300000000000011</v>
       </c>
       <c r="K33" t="n">
-        <v>7.692307692307187</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>74.53</v>
@@ -1962,7 +1984,7 @@
         <v>2.300000000000011</v>
       </c>
       <c r="K34" t="n">
-        <v>7.692307692307187</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L34" t="n">
         <v>74.53</v>
@@ -2013,7 +2035,7 @@
         <v>2.400000000000006</v>
       </c>
       <c r="K35" t="n">
-        <v>33.33333333333254</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L35" t="n">
         <v>74.55000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>2.400000000000006</v>
       </c>
       <c r="K36" t="n">
-        <v>45.45454545454569</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L36" t="n">
         <v>74.56000000000002</v>
@@ -2115,7 +2137,7 @@
         <v>2.400000000000006</v>
       </c>
       <c r="K37" t="n">
-        <v>39.99999999999972</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L37" t="n">
         <v>74.57000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>2.400000000000006</v>
       </c>
       <c r="K38" t="n">
-        <v>24.99999999999911</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L38" t="n">
         <v>74.58000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>2.400000000000006</v>
       </c>
       <c r="K39" t="n">
-        <v>14.28571428571371</v>
+        <v>-33.33333333333649</v>
       </c>
       <c r="L39" t="n">
         <v>74.59000000000002</v>
@@ -2268,7 +2290,7 @@
         <v>2.400000000000006</v>
       </c>
       <c r="K40" t="n">
-        <v>14.28571428571371</v>
+        <v>-33.33333333333649</v>
       </c>
       <c r="L40" t="n">
         <v>74.58000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>2.400000000000006</v>
       </c>
       <c r="K41" t="n">
-        <v>14.28571428571371</v>
+        <v>100</v>
       </c>
       <c r="L41" t="n">
         <v>74.57000000000002</v>
@@ -2370,7 +2392,7 @@
         <v>2.599999999999994</v>
       </c>
       <c r="K42" t="n">
-        <v>-11.11111111111076</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>74.56000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>2.799999999999983</v>
       </c>
       <c r="K43" t="n">
-        <v>9.090909090908857</v>
+        <v>20</v>
       </c>
       <c r="L43" t="n">
         <v>74.57000000000002</v>
@@ -2472,7 +2494,7 @@
         <v>3.09999999999998</v>
       </c>
       <c r="K44" t="n">
-        <v>-14.28571428571487</v>
+        <v>-42.85714285714401</v>
       </c>
       <c r="L44" t="n">
         <v>74.55000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>-24.99999999999911</v>
       </c>
       <c r="L45" t="n">
         <v>74.53</v>
@@ -2574,7 +2596,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K46" t="n">
-        <v>-7.692307692307356</v>
+        <v>-24.99999999999911</v>
       </c>
       <c r="L46" t="n">
         <v>74.51000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K47" t="n">
-        <v>-7.692307692307356</v>
+        <v>-24.99999999999911</v>
       </c>
       <c r="L47" t="n">
         <v>74.48999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.692307692307356</v>
+        <v>-24.99999999999911</v>
       </c>
       <c r="L48" t="n">
         <v>74.47</v>
@@ -2727,7 +2749,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K49" t="n">
-        <v>-7.692307692307356</v>
+        <v>-24.99999999999911</v>
       </c>
       <c r="L49" t="n">
         <v>74.44999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>3.399999999999977</v>
       </c>
       <c r="K50" t="n">
-        <v>-7.692307692308534</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>74.44999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>3.399999999999977</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.692307692308534</v>
+        <v>24.99999999999911</v>
       </c>
       <c r="L51" t="n">
         <v>74.44999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>3.399999999999977</v>
       </c>
       <c r="K52" t="n">
-        <v>9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>74.47</v>
@@ -2931,7 +2953,7 @@
         <v>3.59999999999998</v>
       </c>
       <c r="K53" t="n">
-        <v>23.07692307692341</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>74.48999999999998</v>
@@ -2982,7 +3004,7 @@
         <v>3.899999999999977</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L54" t="n">
         <v>74.50999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>3.999999999999972</v>
       </c>
       <c r="K55" t="n">
-        <v>-12.49999999999956</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>74.50999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>4.19999999999996</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L56" t="n">
         <v>74.53</v>
@@ -3135,7 +3157,7 @@
         <v>4.19999999999996</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L57" t="n">
         <v>74.55</v>
@@ -3186,7 +3208,7 @@
         <v>4.299999999999969</v>
       </c>
       <c r="K58" t="n">
-        <v>5.263157894737393</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L58" t="n">
         <v>74.58000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>4.499999999999986</v>
       </c>
       <c r="K60" t="n">
-        <v>4.761904761905213</v>
+        <v>9.090909090909797</v>
       </c>
       <c r="L60" t="n">
         <v>74.61000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>4.499999999999986</v>
       </c>
       <c r="K61" t="n">
-        <v>4.761904761905213</v>
+        <v>9.090909090909797</v>
       </c>
       <c r="L61" t="n">
         <v>74.62000000000002</v>
@@ -3390,7 +3412,7 @@
         <v>4.499999999999986</v>
       </c>
       <c r="K62" t="n">
-        <v>15.78947368421045</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L62" t="n">
         <v>74.63000000000002</v>
@@ -3441,7 +3463,7 @@
         <v>4.499999999999986</v>
       </c>
       <c r="K63" t="n">
-        <v>5.882352941176962</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>74.62000000000003</v>
@@ -3492,7 +3514,7 @@
         <v>4.59999999999998</v>
       </c>
       <c r="K64" t="n">
-        <v>33.33333333333333</v>
+        <v>66.6666666666643</v>
       </c>
       <c r="L64" t="n">
         <v>74.65000000000002</v>
@@ -3543,7 +3565,7 @@
         <v>4.59999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>28.57142857142814</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L65" t="n">
         <v>74.69000000000003</v>
@@ -3594,7 +3616,7 @@
         <v>4.699999999999974</v>
       </c>
       <c r="K66" t="n">
-        <v>20</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L66" t="n">
         <v>74.70000000000002</v>
@@ -3645,7 +3667,7 @@
         <v>4.899999999999977</v>
       </c>
       <c r="K67" t="n">
-        <v>29.41176470588255</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>74.73000000000002</v>
@@ -3696,7 +3718,7 @@
         <v>4.999999999999986</v>
       </c>
       <c r="K68" t="n">
-        <v>22.22222222222178</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>74.74000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>4.999999999999986</v>
       </c>
       <c r="K69" t="n">
-        <v>22.22222222222178</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L69" t="n">
         <v>74.76000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K70" t="n">
-        <v>17.6470588235299</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>74.78</v>
@@ -3849,7 +3871,7 @@
         <v>5.200000000000003</v>
       </c>
       <c r="K71" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571312</v>
       </c>
       <c r="L71" t="n">
         <v>74.78999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K72" t="n">
-        <v>5.263157894737236</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>74.78999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>5.499999999999986</v>
       </c>
       <c r="K74" t="n">
-        <v>12.50000000000011</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L74" t="n">
         <v>74.78999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>5.59999999999998</v>
       </c>
       <c r="K75" t="n">
-        <v>24.99999999999933</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L75" t="n">
         <v>74.78999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>5.59999999999998</v>
       </c>
       <c r="K76" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571544</v>
       </c>
       <c r="L76" t="n">
         <v>74.79999999999998</v>
@@ -4155,7 +4177,7 @@
         <v>5.699999999999974</v>
       </c>
       <c r="K77" t="n">
-        <v>6.666666666667171</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L77" t="n">
         <v>74.77999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>5.699999999999974</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L78" t="n">
         <v>74.77</v>
@@ -4257,7 +4279,7 @@
         <v>5.799999999999983</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>-42.85714285714518</v>
       </c>
       <c r="L79" t="n">
         <v>74.75</v>
@@ -4308,7 +4330,7 @@
         <v>5.799999999999983</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.692307692308365</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L80" t="n">
         <v>74.72</v>
@@ -4359,7 +4381,7 @@
         <v>5.799999999999983</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.692307692308365</v>
+        <v>-20.00000000000227</v>
       </c>
       <c r="L81" t="n">
         <v>74.70000000000002</v>
@@ -4410,7 +4432,7 @@
         <v>5.899999999999977</v>
       </c>
       <c r="K82" t="n">
-        <v>-14.28571428571458</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L82" t="n">
         <v>74.68000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>5.899999999999977</v>
       </c>
       <c r="K83" t="n">
-        <v>-14.28571428571458</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L83" t="n">
         <v>74.65000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>5.899999999999977</v>
       </c>
       <c r="K84" t="n">
-        <v>-23.07692307692291</v>
+        <v>-100</v>
       </c>
       <c r="L84" t="n">
         <v>74.63000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>5.899999999999977</v>
       </c>
       <c r="K85" t="n">
-        <v>-23.07692307692291</v>
+        <v>-100</v>
       </c>
       <c r="L85" t="n">
         <v>74.60000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>5.999999999999972</v>
       </c>
       <c r="K86" t="n">
-        <v>-23.07692307692291</v>
+        <v>-100</v>
       </c>
       <c r="L86" t="n">
         <v>74.56000000000002</v>
@@ -4665,7 +4687,7 @@
         <v>6.09999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>-50.00000000000059</v>
+        <v>-100</v>
       </c>
       <c r="L87" t="n">
         <v>74.52000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>6.399999999999977</v>
       </c>
       <c r="K88" t="n">
-        <v>-57.14285714285728</v>
+        <v>-100</v>
       </c>
       <c r="L88" t="n">
         <v>74.45</v>
@@ -4767,7 +4789,7 @@
         <v>6.399999999999977</v>
       </c>
       <c r="K89" t="n">
-        <v>-57.14285714285728</v>
+        <v>-100</v>
       </c>
       <c r="L89" t="n">
         <v>74.39</v>
@@ -4818,7 +4840,7 @@
         <v>6.499999999999972</v>
       </c>
       <c r="K90" t="n">
-        <v>-71.42857142857258</v>
+        <v>-100</v>
       </c>
       <c r="L90" t="n">
         <v>74.31999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>6.599999999999966</v>
       </c>
       <c r="K91" t="n">
-        <v>-57.14285714285845</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L91" t="n">
         <v>74.25999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>6.599999999999966</v>
       </c>
       <c r="K92" t="n">
-        <v>-53.84615384615537</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L92" t="n">
         <v>74.20999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>6.599999999999966</v>
       </c>
       <c r="K93" t="n">
-        <v>-66.66666666666785</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L93" t="n">
         <v>74.16</v>
@@ -5022,7 +5044,7 @@
         <v>6.599999999999966</v>
       </c>
       <c r="K94" t="n">
-        <v>-63.63636363636505</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L94" t="n">
         <v>74.10999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>6.599999999999966</v>
       </c>
       <c r="K95" t="n">
-        <v>-80.00000000000085</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L95" t="n">
         <v>74.05999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>6.799999999999969</v>
       </c>
       <c r="K96" t="n">
-        <v>-83.33333333333412</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L96" t="n">
         <v>73.99999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>6.899999999999977</v>
       </c>
       <c r="K97" t="n">
-        <v>-66.66666666666627</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L97" t="n">
         <v>73.95999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>7.09999999999998</v>
       </c>
       <c r="K98" t="n">
-        <v>-71.42857142857115</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L98" t="n">
         <v>73.92999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>7.199999999999974</v>
       </c>
       <c r="K99" t="n">
-        <v>-57.14285714285728</v>
+        <v>-14.28571428571544</v>
       </c>
       <c r="L99" t="n">
         <v>73.91</v>
@@ -5328,7 +5350,7 @@
         <v>7.199999999999974</v>
       </c>
       <c r="K100" t="n">
-        <v>-57.14285714285728</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>73.89999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>7.299999999999983</v>
       </c>
       <c r="K101" t="n">
-        <v>-46.6666666666659</v>
+        <v>-14.28571428571312</v>
       </c>
       <c r="L101" t="n">
         <v>73.88999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>7.299999999999983</v>
       </c>
       <c r="K102" t="n">
-        <v>-42.85714285714228</v>
+        <v>-14.28571428571312</v>
       </c>
       <c r="L102" t="n">
         <v>73.87999999999998</v>
@@ -5481,7 +5503,7 @@
         <v>7.299999999999983</v>
       </c>
       <c r="K103" t="n">
-        <v>-42.85714285714228</v>
+        <v>-14.28571428571312</v>
       </c>
       <c r="L103" t="n">
         <v>73.86999999999998</v>
@@ -5532,7 +5554,7 @@
         <v>7.299999999999983</v>
       </c>
       <c r="K104" t="n">
-        <v>-42.85714285714228</v>
+        <v>-14.28571428571312</v>
       </c>
       <c r="L104" t="n">
         <v>73.85999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>7.299999999999983</v>
       </c>
       <c r="K105" t="n">
-        <v>-42.85714285714228</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L105" t="n">
         <v>73.84999999999998</v>
@@ -5634,7 +5656,7 @@
         <v>7.499999999999972</v>
       </c>
       <c r="K106" t="n">
-        <v>-20.00000000000076</v>
+        <v>33.33333333333176</v>
       </c>
       <c r="L106" t="n">
         <v>73.87999999999998</v>
@@ -5685,7 +5707,7 @@
         <v>7.59999999999998</v>
       </c>
       <c r="K107" t="n">
-        <v>-6.666666666666288</v>
+        <v>100</v>
       </c>
       <c r="L107" t="n">
         <v>73.91</v>
@@ -5736,7 +5758,7 @@
         <v>7.799999999999983</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>73.93999999999998</v>
@@ -5787,7 +5809,7 @@
         <v>7.899999999999977</v>
       </c>
       <c r="K109" t="n">
-        <v>6.666666666666288</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L109" t="n">
         <v>73.97</v>
@@ -5838,7 +5860,7 @@
         <v>7.999999999999986</v>
       </c>
       <c r="K110" t="n">
-        <v>19.99999999999962</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L110" t="n">
         <v>74.01000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>7.999999999999986</v>
       </c>
       <c r="K111" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L111" t="n">
         <v>74.04000000000001</v>
@@ -5940,7 +5962,7 @@
         <v>8.09999999999998</v>
       </c>
       <c r="K112" t="n">
-        <v>19.99999999999962</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L112" t="n">
         <v>74.08000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>8.199999999999989</v>
       </c>
       <c r="K113" t="n">
-        <v>25</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L113" t="n">
         <v>74.13000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K114" t="n">
-        <v>29.41176470588206</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L114" t="n">
         <v>74.19000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K115" t="n">
-        <v>29.41176470588206</v>
+        <v>50</v>
       </c>
       <c r="L115" t="n">
         <v>74.25000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K116" t="n">
-        <v>46.66666666666642</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L116" t="n">
         <v>74.29000000000001</v>
@@ -6195,7 +6217,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K117" t="n">
-        <v>42.85714285714228</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
         <v>74.32000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K118" t="n">
-        <v>66.66666666666627</v>
+        <v>100</v>
       </c>
       <c r="L118" t="n">
         <v>74.37</v>
@@ -6297,7 +6319,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K119" t="n">
-        <v>63.6363636363634</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
         <v>74.41</v>
@@ -6348,7 +6370,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K120" t="n">
-        <v>63.6363636363634</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
         <v>74.44</v>
@@ -6399,7 +6421,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K121" t="n">
-        <v>59.99999999999943</v>
+        <v>100</v>
       </c>
       <c r="L121" t="n">
         <v>74.47</v>
@@ -6450,7 +6472,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K122" t="n">
-        <v>59.99999999999943</v>
+        <v>100</v>
       </c>
       <c r="L122" t="n">
         <v>74.48999999999999</v>
@@ -6500,9 +6522,7 @@
       <c r="J123" t="n">
         <v>8.299999999999983</v>
       </c>
-      <c r="K123" t="n">
-        <v>59.99999999999943</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>74.5</v>
       </c>
@@ -6551,9 +6571,7 @@
       <c r="J124" t="n">
         <v>8.299999999999983</v>
       </c>
-      <c r="K124" t="n">
-        <v>59.99999999999943</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>74.5</v>
       </c>
@@ -6602,9 +6620,7 @@
       <c r="J125" t="n">
         <v>8.299999999999983</v>
       </c>
-      <c r="K125" t="n">
-        <v>59.99999999999943</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>74.5</v>
       </c>
@@ -6653,9 +6669,7 @@
       <c r="J126" t="n">
         <v>8.299999999999983</v>
       </c>
-      <c r="K126" t="n">
-        <v>50</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>74.5</v>
       </c>
@@ -6704,9 +6718,7 @@
       <c r="J127" t="n">
         <v>8.299999999999983</v>
       </c>
-      <c r="K127" t="n">
-        <v>42.85714285714228</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>74.5</v>
       </c>
@@ -6755,9 +6767,7 @@
       <c r="J128" t="n">
         <v>8.299999999999983</v>
       </c>
-      <c r="K128" t="n">
-        <v>100</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>74.5</v>
       </c>
@@ -6806,9 +6816,7 @@
       <c r="J129" t="n">
         <v>8.299999999999983</v>
       </c>
-      <c r="K129" t="n">
-        <v>100</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>74.5</v>
       </c>
@@ -6857,9 +6865,7 @@
       <c r="J130" t="n">
         <v>8.299999999999983</v>
       </c>
-      <c r="K130" t="n">
-        <v>100</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>74.5</v>
       </c>
@@ -6908,9 +6914,7 @@
       <c r="J131" t="n">
         <v>8.299999999999983</v>
       </c>
-      <c r="K131" t="n">
-        <v>100</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>74.5</v>
       </c>
@@ -6959,9 +6963,7 @@
       <c r="J132" t="n">
         <v>8.299999999999983</v>
       </c>
-      <c r="K132" t="n">
-        <v>100</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>74.5</v>
       </c>
@@ -7470,7 +7472,7 @@
         <v>9.099999999999966</v>
       </c>
       <c r="K142" t="n">
-        <v>50.00000000000178</v>
+        <v>42.85714285714518</v>
       </c>
       <c r="L142" t="n">
         <v>74.60999999999999</v>
@@ -7521,7 +7523,7 @@
         <v>9.099999999999966</v>
       </c>
       <c r="K143" t="n">
-        <v>50.00000000000178</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L143" t="n">
         <v>74.63999999999999</v>
@@ -7572,7 +7574,7 @@
         <v>9.099999999999966</v>
       </c>
       <c r="K144" t="n">
-        <v>50.00000000000178</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L144" t="n">
         <v>74.67999999999998</v>
@@ -7623,7 +7625,7 @@
         <v>9.099999999999966</v>
       </c>
       <c r="K145" t="n">
-        <v>50.00000000000178</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L145" t="n">
         <v>74.71999999999998</v>
@@ -7674,7 +7676,7 @@
         <v>9.299999999999955</v>
       </c>
       <c r="K146" t="n">
-        <v>60.00000000000114</v>
+        <v>100</v>
       </c>
       <c r="L146" t="n">
         <v>74.77999999999999</v>
@@ -7725,7 +7727,7 @@
         <v>9.299999999999955</v>
       </c>
       <c r="K147" t="n">
-        <v>60.00000000000114</v>
+        <v>100</v>
       </c>
       <c r="L147" t="n">
         <v>74.84999999999999</v>
@@ -7776,7 +7778,7 @@
         <v>9.399999999999963</v>
       </c>
       <c r="K148" t="n">
-        <v>63.63636363636505</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
         <v>74.91999999999999</v>
@@ -7827,7 +7829,7 @@
         <v>9.599999999999966</v>
       </c>
       <c r="K149" t="n">
-        <v>69.23076923077058</v>
+        <v>100</v>
       </c>
       <c r="L149" t="n">
         <v>74.99999999999999</v>
@@ -7878,7 +7880,7 @@
         <v>9.799999999999955</v>
       </c>
       <c r="K150" t="n">
-        <v>73.33333333333434</v>
+        <v>100</v>
       </c>
       <c r="L150" t="n">
         <v>75.08</v>
@@ -7929,7 +7931,7 @@
         <v>9.799999999999955</v>
       </c>
       <c r="K151" t="n">
-        <v>73.33333333333434</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
         <v>75.16</v>
@@ -7980,7 +7982,7 @@
         <v>9.799999999999955</v>
       </c>
       <c r="K152" t="n">
-        <v>73.33333333333434</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
         <v>75.23</v>
@@ -8031,7 +8033,7 @@
         <v>9.899999999999963</v>
       </c>
       <c r="K153" t="n">
-        <v>73.33333333333459</v>
+        <v>100</v>
       </c>
       <c r="L153" t="n">
         <v>75.31000000000002</v>
@@ -8082,7 +8084,7 @@
         <v>9.999999999999957</v>
       </c>
       <c r="K154" t="n">
-        <v>86.6666666666673</v>
+        <v>100</v>
       </c>
       <c r="L154" t="n">
         <v>75.40000000000001</v>
@@ -8133,7 +8135,7 @@
         <v>9.999999999999957</v>
       </c>
       <c r="K155" t="n">
-        <v>86.6666666666673</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
         <v>75.49000000000001</v>
@@ -8184,7 +8186,7 @@
         <v>10.49999999999996</v>
       </c>
       <c r="K156" t="n">
-        <v>40.00000000000014</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L156" t="n">
         <v>75.51000000000001</v>
@@ -8235,7 +8237,7 @@
         <v>10.59999999999995</v>
       </c>
       <c r="K157" t="n">
-        <v>40.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>75.52000000000001</v>
@@ -8286,7 +8288,7 @@
         <v>10.99999999999994</v>
       </c>
       <c r="K158" t="n">
-        <v>47.82608695652185</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L158" t="n">
         <v>75.56</v>
@@ -8337,7 +8339,7 @@
         <v>10.99999999999994</v>
       </c>
       <c r="K159" t="n">
-        <v>45.45454545454569</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>75.58000000000001</v>
@@ -8388,7 +8390,7 @@
         <v>11.09999999999994</v>
       </c>
       <c r="K160" t="n">
-        <v>33.33333333333378</v>
+        <v>-7.692307692307356</v>
       </c>
       <c r="L160" t="n">
         <v>75.57000000000001</v>
@@ -8439,7 +8441,7 @@
         <v>11.29999999999994</v>
       </c>
       <c r="K161" t="n">
-        <v>21.73913043478277</v>
+        <v>-20</v>
       </c>
       <c r="L161" t="n">
         <v>75.53999999999999</v>
@@ -8490,7 +8492,7 @@
         <v>11.39999999999993</v>
       </c>
       <c r="K162" t="n">
-        <v>13.04347826086962</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L162" t="n">
         <v>75.5</v>
@@ -8541,7 +8543,7 @@
         <v>11.49999999999993</v>
       </c>
       <c r="K163" t="n">
-        <v>16.66666666666657</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L163" t="n">
         <v>75.45999999999999</v>
@@ -8592,7 +8594,7 @@
         <v>11.49999999999993</v>
       </c>
       <c r="K164" t="n">
-        <v>16.66666666666657</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L164" t="n">
         <v>75.41</v>
@@ -8643,7 +8645,7 @@
         <v>11.49999999999993</v>
       </c>
       <c r="K165" t="n">
-        <v>16.66666666666657</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>75.35999999999999</v>
@@ -8694,7 +8696,7 @@
         <v>11.49999999999993</v>
       </c>
       <c r="K166" t="n">
-        <v>9.090909090909326</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L166" t="n">
         <v>75.35999999999999</v>
@@ -8745,7 +8747,7 @@
         <v>11.59999999999994</v>
       </c>
       <c r="K167" t="n">
-        <v>13.04347826087016</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L167" t="n">
         <v>75.37999999999998</v>
@@ -8796,7 +8798,7 @@
         <v>11.59999999999994</v>
       </c>
       <c r="K168" t="n">
-        <v>9.090909090909326</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L168" t="n">
         <v>75.35999999999999</v>
@@ -8847,7 +8849,7 @@
         <v>11.59999999999994</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L169" t="n">
         <v>75.33999999999997</v>
@@ -8898,7 +8900,7 @@
         <v>11.69999999999995</v>
       </c>
       <c r="K170" t="n">
-        <v>-15.78947368421045</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>75.31999999999996</v>
@@ -8949,7 +8951,7 @@
         <v>11.69999999999995</v>
       </c>
       <c r="K171" t="n">
-        <v>-15.78947368421045</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L171" t="n">
         <v>75.31999999999996</v>
@@ -9000,7 +9002,7 @@
         <v>11.89999999999995</v>
       </c>
       <c r="K172" t="n">
-        <v>-4.761904761904504</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L172" t="n">
         <v>75.34999999999997</v>
@@ -9051,7 +9053,7 @@
         <v>11.99999999999994</v>
       </c>
       <c r="K173" t="n">
-        <v>-4.761904761905213</v>
+        <v>59.99999999999772</v>
       </c>
       <c r="L173" t="n">
         <v>75.37999999999997</v>
@@ -9102,7 +9104,7 @@
         <v>11.99999999999994</v>
       </c>
       <c r="K174" t="n">
-        <v>-10.00000000000021</v>
+        <v>59.99999999999772</v>
       </c>
       <c r="L174" t="n">
         <v>75.40999999999998</v>
@@ -9153,7 +9155,7 @@
         <v>12.09999999999994</v>
       </c>
       <c r="K175" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L175" t="n">
         <v>75.42999999999998</v>
@@ -9204,7 +9206,7 @@
         <v>12.09999999999994</v>
       </c>
       <c r="K176" t="n">
-        <v>12.50000000000033</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L176" t="n">
         <v>75.44999999999999</v>
@@ -9255,7 +9257,7 @@
         <v>12.19999999999993</v>
       </c>
       <c r="K177" t="n">
-        <v>12.50000000000033</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>75.44999999999999</v>
@@ -9306,7 +9308,7 @@
         <v>12.69999999999993</v>
       </c>
       <c r="K178" t="n">
-        <v>-41.1764705882349</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L178" t="n">
         <v>75.39999999999999</v>
@@ -9357,7 +9359,7 @@
         <v>12.69999999999993</v>
       </c>
       <c r="K179" t="n">
-        <v>-41.1764705882349</v>
+        <v>-39.99999999999972</v>
       </c>
       <c r="L179" t="n">
         <v>75.34999999999999</v>
@@ -9408,7 +9410,7 @@
         <v>12.89999999999992</v>
       </c>
       <c r="K180" t="n">
-        <v>-22.22222222222275</v>
+        <v>-16.66666666666726</v>
       </c>
       <c r="L180" t="n">
         <v>75.33</v>
@@ -9459,7 +9461,7 @@
         <v>12.89999999999992</v>
       </c>
       <c r="K181" t="n">
-        <v>-12.50000000000033</v>
+        <v>-40.00000000000171</v>
       </c>
       <c r="L181" t="n">
         <v>75.31</v>
@@ -9510,7 +9512,7 @@
         <v>12.99999999999993</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>-39.99999999999972</v>
       </c>
       <c r="L182" t="n">
         <v>75.28</v>
@@ -9561,7 +9563,7 @@
         <v>12.99999999999993</v>
       </c>
       <c r="K183" t="n">
-        <v>-6.666666666666288</v>
+        <v>-39.99999999999972</v>
       </c>
       <c r="L183" t="n">
         <v>75.24000000000001</v>
@@ -9612,7 +9614,7 @@
         <v>13.09999999999992</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L184" t="n">
         <v>75.21000000000001</v>
@@ -9663,7 +9665,7 @@
         <v>13.39999999999992</v>
       </c>
       <c r="K185" t="n">
-        <v>15.78947368421045</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L185" t="n">
         <v>75.22</v>
@@ -9714,7 +9716,7 @@
         <v>13.59999999999992</v>
       </c>
       <c r="K186" t="n">
-        <v>23.80952380952387</v>
+        <v>28.57142857142814</v>
       </c>
       <c r="L186" t="n">
         <v>75.25</v>
@@ -9765,7 +9767,7 @@
         <v>13.69999999999993</v>
       </c>
       <c r="K187" t="n">
-        <v>23.80952380952387</v>
+        <v>100</v>
       </c>
       <c r="L187" t="n">
         <v>75.3</v>
@@ -9816,7 +9818,7 @@
         <v>13.79999999999994</v>
       </c>
       <c r="K188" t="n">
-        <v>18.18181818181777</v>
+        <v>81.81818181818042</v>
       </c>
       <c r="L188" t="n">
         <v>75.39</v>
@@ -9867,7 +9869,7 @@
         <v>13.89999999999995</v>
       </c>
       <c r="K189" t="n">
-        <v>21.7391304347825</v>
+        <v>79.99999999999886</v>
       </c>
       <c r="L189" t="n">
         <v>75.48999999999999</v>
@@ -9918,7 +9920,7 @@
         <v>14.19999999999996</v>
       </c>
       <c r="K190" t="n">
-        <v>11.99999999999982</v>
+        <v>38.46153846153729</v>
       </c>
       <c r="L190" t="n">
         <v>75.53999999999999</v>
@@ -9969,7 +9971,7 @@
         <v>14.29999999999997</v>
       </c>
       <c r="K191" t="n">
-        <v>15.38461538461547</v>
+        <v>38.46153846153729</v>
       </c>
       <c r="L191" t="n">
         <v>75.59999999999999</v>
@@ -10020,7 +10022,7 @@
         <v>14.39999999999998</v>
       </c>
       <c r="K192" t="n">
-        <v>3.999999999999727</v>
+        <v>28.57142857142698</v>
       </c>
       <c r="L192" t="n">
         <v>75.64</v>
@@ -10071,7 +10073,7 @@
         <v>14.49999999999997</v>
       </c>
       <c r="K193" t="n">
-        <v>-3.999999999999727</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L193" t="n">
         <v>75.66999999999999</v>
@@ -10122,7 +10124,7 @@
         <v>14.49999999999997</v>
       </c>
       <c r="K194" t="n">
-        <v>-3.999999999999727</v>
+        <v>-9.090909090908152</v>
       </c>
       <c r="L194" t="n">
         <v>75.69</v>
@@ -10173,7 +10175,7 @@
         <v>14.79999999999997</v>
       </c>
       <c r="K195" t="n">
-        <v>-11.11111111111088</v>
+        <v>-49.99999999999763</v>
       </c>
       <c r="L195" t="n">
         <v>75.65000000000001</v>
@@ -10224,7 +10226,7 @@
         <v>14.79999999999997</v>
       </c>
       <c r="K196" t="n">
-        <v>-11.11111111111088</v>
+        <v>-63.63636363636176</v>
       </c>
       <c r="L196" t="n">
         <v>75.59</v>
@@ -10275,7 +10277,7 @@
         <v>14.99999999999997</v>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L197" t="n">
         <v>75.54000000000001</v>
@@ -10326,7 +10328,7 @@
         <v>15.19999999999997</v>
       </c>
       <c r="K198" t="n">
-        <v>11.99999999999968</v>
+        <v>-53.846153846153</v>
       </c>
       <c r="L198" t="n">
         <v>75.48000000000002</v>
@@ -10377,7 +10379,7 @@
         <v>15.19999999999997</v>
       </c>
       <c r="K199" t="n">
-        <v>11.99999999999968</v>
+        <v>-39.99999999999858</v>
       </c>
       <c r="L199" t="n">
         <v>75.41000000000003</v>
@@ -10428,7 +10430,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K200" t="n">
-        <v>12.00000000000018</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L200" t="n">
         <v>75.39000000000001</v>
@@ -10479,7 +10481,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K201" t="n">
-        <v>3.703703703703937</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L201" t="n">
         <v>75.34000000000002</v>
@@ -10530,7 +10532,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L202" t="n">
         <v>75.30000000000003</v>
@@ -10581,7 +10583,7 @@
         <v>15.79999999999998</v>
       </c>
       <c r="K203" t="n">
-        <v>7.142857142857107</v>
+        <v>-7.692307692307187</v>
       </c>
       <c r="L203" t="n">
         <v>75.29000000000002</v>
@@ -10632,7 +10634,7 @@
         <v>15.89999999999999</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>9.090909090908387</v>
       </c>
       <c r="L204" t="n">
         <v>75.27000000000001</v>
@@ -10683,7 +10685,7 @@
         <v>15.89999999999999</v>
       </c>
       <c r="K205" t="n">
-        <v>-11.99999999999955</v>
+        <v>9.090909090908387</v>
       </c>
       <c r="L205" t="n">
         <v>75.28</v>
@@ -10734,7 +10736,7 @@
         <v>15.99999999999999</v>
       </c>
       <c r="K206" t="n">
-        <v>-24.99999999999911</v>
+        <v>-20</v>
       </c>
       <c r="L206" t="n">
         <v>75.28</v>
@@ -10785,7 +10787,7 @@
         <v>16.09999999999998</v>
       </c>
       <c r="K207" t="n">
-        <v>-24.99999999999985</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L207" t="n">
         <v>75.27000000000001</v>
@@ -10836,7 +10838,7 @@
         <v>16.19999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>-16.66666666666598</v>
+        <v>20</v>
       </c>
       <c r="L208" t="n">
         <v>75.28999999999999</v>
@@ -10887,7 +10889,7 @@
         <v>16.59999999999998</v>
       </c>
       <c r="K209" t="n">
-        <v>-3.703703703703977</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L209" t="n">
         <v>75.34999999999999</v>
@@ -10938,7 +10940,7 @@
         <v>16.59999999999998</v>
       </c>
       <c r="K210" t="n">
-        <v>8.333333333333384</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L210" t="n">
         <v>75.38999999999999</v>
@@ -10989,7 +10991,7 @@
         <v>16.79999999999998</v>
       </c>
       <c r="K211" t="n">
-        <v>-4.000000000000319</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L211" t="n">
         <v>75.42999999999998</v>
@@ -11040,7 +11042,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K212" t="n">
-        <v>7.692307692307776</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L212" t="n">
         <v>75.48999999999998</v>
@@ -11091,7 +11093,7 @@
         <v>17.19999999999999</v>
       </c>
       <c r="K213" t="n">
-        <v>3.70370370370347</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L213" t="n">
         <v>75.50999999999998</v>
@@ -11142,7 +11144,7 @@
         <v>17.19999999999999</v>
       </c>
       <c r="K214" t="n">
-        <v>3.70370370370347</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L214" t="n">
         <v>75.53999999999999</v>
@@ -11193,7 +11195,7 @@
         <v>17.19999999999999</v>
       </c>
       <c r="K215" t="n">
-        <v>16.66666666666617</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L215" t="n">
         <v>75.56999999999999</v>
@@ -11244,7 +11246,7 @@
         <v>17.19999999999999</v>
       </c>
       <c r="K216" t="n">
-        <v>16.66666666666617</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L216" t="n">
         <v>75.60999999999999</v>
@@ -11295,7 +11297,7 @@
         <v>17.5</v>
       </c>
       <c r="K217" t="n">
-        <v>19.99999999999977</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L217" t="n">
         <v>75.66999999999999</v>
@@ -11346,7 +11348,7 @@
         <v>17.5</v>
       </c>
       <c r="K218" t="n">
-        <v>30.43478260869544</v>
+        <v>11.11111111111181</v>
       </c>
       <c r="L218" t="n">
         <v>75.72</v>
@@ -11397,7 +11399,7 @@
         <v>17.59999999999999</v>
       </c>
       <c r="K219" t="n">
-        <v>33.33333333333294</v>
+        <v>20</v>
       </c>
       <c r="L219" t="n">
         <v>75.73999999999999</v>
@@ -11448,7 +11450,7 @@
         <v>17.59999999999999</v>
       </c>
       <c r="K220" t="n">
-        <v>27.2727272727268</v>
+        <v>50</v>
       </c>
       <c r="L220" t="n">
         <v>75.76000000000001</v>
@@ -11499,7 +11501,7 @@
         <v>17.59999999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>39.99999999999957</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>75.8</v>
@@ -11550,7 +11552,7 @@
         <v>17.59999999999999</v>
       </c>
       <c r="K222" t="n">
-        <v>39.99999999999957</v>
+        <v>100</v>
       </c>
       <c r="L222" t="n">
         <v>75.82000000000001</v>
@@ -11601,7 +11603,7 @@
         <v>17.69999999999999</v>
       </c>
       <c r="K223" t="n">
-        <v>36.84210526315719</v>
+        <v>100</v>
       </c>
       <c r="L223" t="n">
         <v>75.87</v>
@@ -11652,7 +11654,7 @@
         <v>17.8</v>
       </c>
       <c r="K224" t="n">
-        <v>47.36842105263174</v>
+        <v>100</v>
       </c>
       <c r="L224" t="n">
         <v>75.93000000000001</v>
@@ -11703,7 +11705,7 @@
         <v>17.90000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>39.99999999999957</v>
+        <v>71.42857142856968</v>
       </c>
       <c r="L225" t="n">
         <v>75.98</v>
@@ -11754,7 +11756,7 @@
         <v>17.90000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>47.36842105263063</v>
+        <v>49.99999999999645</v>
       </c>
       <c r="L226" t="n">
         <v>76.03</v>
@@ -11805,7 +11807,7 @@
         <v>17.90000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>44.44444444444365</v>
+        <v>49.99999999999645</v>
       </c>
       <c r="L227" t="n">
         <v>76.05000000000001</v>
@@ -11856,7 +11858,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>44.44444444444365</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L228" t="n">
         <v>76.08000000000001</v>
@@ -11907,7 +11909,7 @@
         <v>18.10000000000002</v>
       </c>
       <c r="K229" t="n">
-        <v>19.99999999999924</v>
+        <v>19.99999999999773</v>
       </c>
       <c r="L229" t="n">
         <v>76.09000000000002</v>
@@ -11958,7 +11960,7 @@
         <v>18.20000000000003</v>
       </c>
       <c r="K230" t="n">
-        <v>24.99999999999956</v>
+        <v>33.33333333333176</v>
       </c>
       <c r="L230" t="n">
         <v>76.11000000000003</v>
@@ -12009,7 +12011,7 @@
         <v>18.40000000000003</v>
       </c>
       <c r="K231" t="n">
-        <v>24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>76.11000000000003</v>
@@ -12060,7 +12062,7 @@
         <v>18.40000000000003</v>
       </c>
       <c r="K232" t="n">
-        <v>14.285714285714</v>
+        <v>-14.28571428571254</v>
       </c>
       <c r="L232" t="n">
         <v>76.11000000000003</v>
@@ -12111,7 +12113,7 @@
         <v>18.50000000000003</v>
       </c>
       <c r="K233" t="n">
-        <v>23.07692307692324</v>
+        <v>-42.85714285714054</v>
       </c>
       <c r="L233" t="n">
         <v>76.09000000000002</v>
@@ -12162,7 +12164,7 @@
         <v>18.70000000000003</v>
       </c>
       <c r="K234" t="n">
-        <v>6.666666666667045</v>
+        <v>-49.99999999999734</v>
       </c>
       <c r="L234" t="n">
         <v>76.04000000000002</v>
@@ -12213,7 +12215,7 @@
         <v>18.70000000000003</v>
       </c>
       <c r="K235" t="n">
-        <v>6.666666666667045</v>
+        <v>-49.99999999999734</v>
       </c>
       <c r="L235" t="n">
         <v>76.00000000000003</v>
@@ -12264,7 +12266,7 @@
         <v>18.80000000000003</v>
       </c>
       <c r="K236" t="n">
-        <v>12.49999999999989</v>
+        <v>-33.33333333333228</v>
       </c>
       <c r="L236" t="n">
         <v>75.97000000000001</v>
@@ -12315,7 +12317,7 @@
         <v>18.80000000000003</v>
       </c>
       <c r="K237" t="n">
-        <v>-7.692307692308196</v>
+        <v>-50</v>
       </c>
       <c r="L237" t="n">
         <v>75.94000000000001</v>
@@ -12366,7 +12368,7 @@
         <v>18.90000000000003</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>-24.99999999999822</v>
       </c>
       <c r="L238" t="n">
         <v>75.91</v>
@@ -12417,7 +12419,7 @@
         <v>18.90000000000003</v>
       </c>
       <c r="K239" t="n">
-        <v>-7.692307692307019</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L239" t="n">
         <v>75.89</v>
@@ -12468,7 +12470,7 @@
         <v>19.10000000000002</v>
       </c>
       <c r="K240" t="n">
-        <v>6.666666666666162</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L240" t="n">
         <v>75.88</v>
@@ -12519,7 +12521,7 @@
         <v>19.10000000000002</v>
       </c>
       <c r="K241" t="n">
-        <v>6.666666666666162</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L241" t="n">
         <v>75.89</v>
@@ -12570,7 +12572,7 @@
         <v>19.40000000000002</v>
       </c>
       <c r="K242" t="n">
-        <v>-11.11111111111111</v>
+        <v>-11.11111111111216</v>
       </c>
       <c r="L242" t="n">
         <v>75.86999999999999</v>
@@ -12621,7 +12623,7 @@
         <v>19.50000000000003</v>
       </c>
       <c r="K243" t="n">
-        <v>-11.11111111111023</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L243" t="n">
         <v>75.86999999999999</v>
@@ -12672,7 +12674,7 @@
         <v>19.60000000000004</v>
       </c>
       <c r="K244" t="n">
-        <v>-22.22222222222205</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L244" t="n">
         <v>75.87999999999998</v>
@@ -12723,7 +12725,7 @@
         <v>19.70000000000005</v>
       </c>
       <c r="K245" t="n">
-        <v>-11.11111111111023</v>
+        <v>11.11111111111181</v>
       </c>
       <c r="L245" t="n">
         <v>75.89999999999998</v>
@@ -12774,7 +12776,7 @@
         <v>19.70000000000005</v>
       </c>
       <c r="K246" t="n">
-        <v>-11.11111111111023</v>
+        <v>11.11111111111181</v>
       </c>
       <c r="L246" t="n">
         <v>75.90999999999998</v>
@@ -12825,7 +12827,7 @@
         <v>19.70000000000005</v>
       </c>
       <c r="K247" t="n">
-        <v>-11.11111111111023</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>75.91999999999999</v>
@@ -12876,7 +12878,7 @@
         <v>19.70000000000005</v>
       </c>
       <c r="K248" t="n">
-        <v>-17.64705882352892</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>75.91999999999999</v>
@@ -12927,7 +12929,7 @@
         <v>19.70000000000005</v>
       </c>
       <c r="K249" t="n">
-        <v>-12.49999999999911</v>
+        <v>-33.33333333333017</v>
       </c>
       <c r="L249" t="n">
         <v>75.91999999999999</v>
@@ -12978,7 +12980,7 @@
         <v>19.70000000000005</v>
       </c>
       <c r="K250" t="n">
-        <v>-19.99999999999962</v>
+        <v>-33.33333333333017</v>
       </c>
       <c r="L250" t="n">
         <v>75.89999999999998</v>
@@ -13029,7 +13031,7 @@
         <v>19.80000000000005</v>
       </c>
       <c r="K251" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>75.86999999999998</v>
@@ -13080,7 +13082,7 @@
         <v>19.80000000000005</v>
       </c>
       <c r="K252" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L252" t="n">
         <v>75.86999999999998</v>
@@ -13131,7 +13133,7 @@
         <v>19.90000000000005</v>
       </c>
       <c r="K253" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333017</v>
       </c>
       <c r="L253" t="n">
         <v>75.84999999999998</v>
@@ -13182,7 +13184,7 @@
         <v>20.00000000000004</v>
       </c>
       <c r="K254" t="n">
-        <v>7.692307692307187</v>
+        <v>-33.33333333333649</v>
       </c>
       <c r="L254" t="n">
         <v>75.84999999999998</v>
@@ -13233,7 +13235,7 @@
         <v>20.00000000000004</v>
       </c>
       <c r="K255" t="n">
-        <v>7.692307692307187</v>
+        <v>-33.33333333333649</v>
       </c>
       <c r="L255" t="n">
         <v>75.83999999999997</v>
@@ -13284,7 +13286,7 @@
         <v>20.20000000000005</v>
       </c>
       <c r="K256" t="n">
-        <v>-14.28571428571428</v>
+        <v>-60.00000000000227</v>
       </c>
       <c r="L256" t="n">
         <v>75.80999999999997</v>
@@ -13335,7 +13337,7 @@
         <v>20.30000000000004</v>
       </c>
       <c r="K257" t="n">
-        <v>-19.99999999999962</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L257" t="n">
         <v>75.76999999999998</v>
@@ -13386,7 +13388,7 @@
         <v>20.50000000000004</v>
       </c>
       <c r="K258" t="n">
-        <v>-12.50000000000011</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L258" t="n">
         <v>75.74999999999999</v>
@@ -13437,7 +13439,7 @@
         <v>20.60000000000005</v>
       </c>
       <c r="K259" t="n">
-        <v>-17.6470588235299</v>
+        <v>-33.33333333333439</v>
       </c>
       <c r="L259" t="n">
         <v>75.72</v>
@@ -13488,7 +13490,7 @@
         <v>20.60000000000005</v>
       </c>
       <c r="K260" t="n">
-        <v>-33.3333333333327</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L260" t="n">
         <v>75.69</v>
@@ -13539,7 +13541,7 @@
         <v>20.60000000000005</v>
       </c>
       <c r="K261" t="n">
-        <v>-33.3333333333327</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L261" t="n">
         <v>75.67</v>
@@ -13590,7 +13592,7 @@
         <v>20.60000000000005</v>
       </c>
       <c r="K262" t="n">
-        <v>-16.66666666666647</v>
+        <v>-14.28571428571544</v>
       </c>
       <c r="L262" t="n">
         <v>75.65000000000001</v>
@@ -13641,7 +13643,7 @@
         <v>20.60000000000005</v>
       </c>
       <c r="K263" t="n">
-        <v>-27.27272727272774</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>75.64000000000001</v>
@@ -13692,7 +13694,7 @@
         <v>20.80000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>-33.33333333333254</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L264" t="n">
         <v>75.60000000000001</v>
@@ -13743,7 +13745,7 @@
         <v>20.90000000000005</v>
       </c>
       <c r="K265" t="n">
-        <v>-50.00000000000059</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L265" t="n">
         <v>75.55000000000001</v>
@@ -13794,7 +13796,7 @@
         <v>21.30000000000005</v>
       </c>
       <c r="K266" t="n">
-        <v>-12.50000000000011</v>
+        <v>20</v>
       </c>
       <c r="L266" t="n">
         <v>75.56000000000002</v>
@@ -13845,7 +13847,7 @@
         <v>21.60000000000005</v>
       </c>
       <c r="K267" t="n">
-        <v>-26.31578947368413</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L267" t="n">
         <v>75.55000000000001</v>
@@ -13896,7 +13898,7 @@
         <v>21.80000000000004</v>
       </c>
       <c r="K268" t="n">
-        <v>-14.28571428571487</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>75.54000000000001</v>
@@ -13947,7 +13949,7 @@
         <v>21.80000000000004</v>
       </c>
       <c r="K269" t="n">
-        <v>-14.28571428571487</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>75.54000000000001</v>
@@ -13998,7 +14000,7 @@
         <v>22.00000000000003</v>
       </c>
       <c r="K270" t="n">
-        <v>-21.73913043478277</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L270" t="n">
         <v>75.52000000000001</v>
@@ -14049,7 +14051,7 @@
         <v>22.00000000000003</v>
       </c>
       <c r="K271" t="n">
-        <v>-18.18181818181801</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L271" t="n">
         <v>75.5</v>
@@ -14100,7 +14102,7 @@
         <v>22.10000000000004</v>
       </c>
       <c r="K272" t="n">
-        <v>-21.73913043478277</v>
+        <v>-20</v>
       </c>
       <c r="L272" t="n">
         <v>75.47</v>
@@ -14151,7 +14153,7 @@
         <v>22.30000000000004</v>
       </c>
       <c r="K273" t="n">
-        <v>-8.333333333333481</v>
+        <v>6.666666666666288</v>
       </c>
       <c r="L273" t="n">
         <v>75.45999999999999</v>
@@ -14202,7 +14204,7 @@
         <v>22.30000000000004</v>
       </c>
       <c r="K274" t="n">
-        <v>-13.04347826086946</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L274" t="n">
         <v>75.47</v>
@@ -14253,7 +14255,7 @@
         <v>22.40000000000003</v>
       </c>
       <c r="K275" t="n">
-        <v>-8.333333333333481</v>
+        <v>-9.090909090910031</v>
       </c>
       <c r="L275" t="n">
         <v>75.5</v>
@@ -14304,7 +14306,7 @@
         <v>22.50000000000003</v>
       </c>
       <c r="K276" t="n">
-        <v>-4.347826086956307</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L276" t="n">
         <v>75.47999999999999</v>
@@ -14355,7 +14357,7 @@
         <v>22.50000000000003</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L277" t="n">
         <v>75.48999999999999</v>
@@ -14406,7 +14408,7 @@
         <v>22.70000000000003</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>11.11111111111216</v>
       </c>
       <c r="L278" t="n">
         <v>75.5</v>
@@ -14457,7 +14459,7 @@
         <v>23.00000000000003</v>
       </c>
       <c r="K279" t="n">
-        <v>16.66666666666706</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L279" t="n">
         <v>75.53999999999999</v>
@@ -14508,7 +14510,7 @@
         <v>23.00000000000003</v>
       </c>
       <c r="K280" t="n">
-        <v>16.66666666666706</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L280" t="n">
         <v>75.59999999999999</v>
@@ -14559,7 +14561,7 @@
         <v>23.00000000000003</v>
       </c>
       <c r="K281" t="n">
-        <v>16.66666666666706</v>
+        <v>77.77777777777884</v>
       </c>
       <c r="L281" t="n">
         <v>75.66</v>
@@ -14610,7 +14612,7 @@
         <v>23.20000000000003</v>
       </c>
       <c r="K282" t="n">
-        <v>7.69230769230786</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L282" t="n">
         <v>75.71000000000001</v>
@@ -14661,7 +14663,7 @@
         <v>23.50000000000003</v>
       </c>
       <c r="K283" t="n">
-        <v>17.24137931034496</v>
+        <v>50</v>
       </c>
       <c r="L283" t="n">
         <v>75.77000000000001</v>
@@ -14712,7 +14714,7 @@
         <v>23.70000000000003</v>
       </c>
       <c r="K284" t="n">
-        <v>31.03448275862048</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L284" t="n">
         <v>75.84999999999999</v>
@@ -14763,7 +14765,7 @@
         <v>23.80000000000004</v>
       </c>
       <c r="K285" t="n">
-        <v>37.93103448275902</v>
+        <v>69.23076923076906</v>
       </c>
       <c r="L285" t="n">
         <v>75.92999999999999</v>
@@ -14814,7 +14816,7 @@
         <v>24.00000000000003</v>
       </c>
       <c r="K286" t="n">
-        <v>33.33333333333333</v>
+        <v>73.33333333333294</v>
       </c>
       <c r="L286" t="n">
         <v>76.03999999999999</v>
@@ -14865,7 +14867,7 @@
         <v>24.30000000000004</v>
       </c>
       <c r="K287" t="n">
-        <v>55.55555555555579</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L287" t="n">
         <v>76.17999999999999</v>
@@ -14916,7 +14918,7 @@
         <v>24.40000000000003</v>
       </c>
       <c r="K288" t="n">
-        <v>53.84615384615419</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L288" t="n">
         <v>76.30999999999999</v>
@@ -14967,7 +14969,7 @@
         <v>24.40000000000003</v>
       </c>
       <c r="K289" t="n">
-        <v>53.84615384615419</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L289" t="n">
         <v>76.41</v>
@@ -15018,7 +15020,7 @@
         <v>24.40000000000003</v>
       </c>
       <c r="K290" t="n">
-        <v>66.66666666666627</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L290" t="n">
         <v>76.50999999999999</v>
@@ -15069,7 +15071,7 @@
         <v>24.50000000000003</v>
       </c>
       <c r="K291" t="n">
-        <v>67.99999999999955</v>
+        <v>100</v>
       </c>
       <c r="L291" t="n">
         <v>76.61999999999999</v>
@@ -15120,7 +15122,7 @@
         <v>24.50000000000003</v>
       </c>
       <c r="K292" t="n">
-        <v>75.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L292" t="n">
         <v>76.75</v>
@@ -15171,7 +15173,7 @@
         <v>24.50000000000003</v>
       </c>
       <c r="K293" t="n">
-        <v>72.72727272727283</v>
+        <v>100</v>
       </c>
       <c r="L293" t="n">
         <v>76.84999999999999</v>
@@ -15222,7 +15224,7 @@
         <v>24.70000000000003</v>
       </c>
       <c r="K294" t="n">
-        <v>75.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L294" t="n">
         <v>76.95</v>
@@ -15273,7 +15275,7 @@
         <v>25.00000000000003</v>
       </c>
       <c r="K295" t="n">
-        <v>53.84615384615419</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L295" t="n">
         <v>77.01000000000001</v>
@@ -15324,7 +15326,7 @@
         <v>25.10000000000002</v>
       </c>
       <c r="K296" t="n">
-        <v>61.53846153846145</v>
+        <v>24.99999999999911</v>
       </c>
       <c r="L296" t="n">
         <v>77.06</v>
@@ -15375,7 +15377,7 @@
         <v>25.20000000000002</v>
       </c>
       <c r="K297" t="n">
-        <v>55.55555555555579</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>77.07000000000001</v>
@@ -15426,7 +15428,7 @@
         <v>25.30000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>53.84615384615393</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L298" t="n">
         <v>77.08000000000001</v>
@@ -15477,7 +15479,7 @@
         <v>25.50000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>52.00000000000018</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L299" t="n">
         <v>77.11</v>
@@ -15528,7 +15530,7 @@
         <v>25.60000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>46.15384615384662</v>
+        <v>9.090909090910031</v>
       </c>
       <c r="L300" t="n">
         <v>77.13000000000001</v>
@@ -15579,7 +15581,7 @@
         <v>25.7</v>
       </c>
       <c r="K301" t="n">
-        <v>48.1481481481485</v>
+        <v>16.66666666666726</v>
       </c>
       <c r="L301" t="n">
         <v>77.15000000000001</v>
@@ -15630,7 +15632,7 @@
         <v>25.90000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>48.1481481481485</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>77.15000000000001</v>
@@ -15681,7 +15683,7 @@
         <v>26.00000000000001</v>
       </c>
       <c r="K303" t="n">
-        <v>44.00000000000059</v>
+        <v>-7.692307692307356</v>
       </c>
       <c r="L303" t="n">
         <v>77.16</v>
@@ -15732,7 +15734,7 @@
         <v>26.00000000000001</v>
       </c>
       <c r="K304" t="n">
-        <v>39.13043478260923</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L304" t="n">
         <v>77.15000000000001</v>
@@ -15783,7 +15785,7 @@
         <v>26.10000000000002</v>
       </c>
       <c r="K305" t="n">
-        <v>30.43478260869538</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>77.16000000000001</v>
@@ -15834,7 +15836,7 @@
         <v>26.10000000000002</v>
       </c>
       <c r="K306" t="n">
-        <v>23.80952380952387</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L306" t="n">
         <v>77.16000000000001</v>
@@ -15885,7 +15887,7 @@
         <v>26.10000000000002</v>
       </c>
       <c r="K307" t="n">
-        <v>11.11111111111058</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>77.17000000000002</v>
@@ -15936,7 +15938,7 @@
         <v>26.10000000000002</v>
       </c>
       <c r="K308" t="n">
-        <v>5.882352941176175</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L308" t="n">
         <v>77.17000000000002</v>
@@ -15987,7 +15989,7 @@
         <v>26.30000000000003</v>
       </c>
       <c r="K309" t="n">
-        <v>15.78947368421045</v>
+        <v>14.28571428571312</v>
       </c>
       <c r="L309" t="n">
         <v>77.17000000000002</v>
@@ -16038,7 +16040,7 @@
         <v>26.40000000000002</v>
       </c>
       <c r="K310" t="n">
-        <v>10.00000000000021</v>
+        <v>-14.28571428571312</v>
       </c>
       <c r="L310" t="n">
         <v>77.17000000000002</v>
@@ -16089,7 +16091,7 @@
         <v>26.40000000000002</v>
       </c>
       <c r="K311" t="n">
-        <v>5.263157894737314</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L311" t="n">
         <v>77.16000000000003</v>
@@ -16140,7 +16142,7 @@
         <v>26.40000000000002</v>
       </c>
       <c r="K312" t="n">
-        <v>5.263157894737314</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>77.17000000000003</v>
@@ -16191,7 +16193,7 @@
         <v>26.50000000000003</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L313" t="n">
         <v>77.16000000000003</v>
@@ -16242,7 +16244,7 @@
         <v>26.50000000000003</v>
       </c>
       <c r="K314" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>77.15000000000002</v>
@@ -16293,7 +16295,7 @@
         <v>26.50000000000003</v>
       </c>
       <c r="K315" t="n">
-        <v>6.666666666666288</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>77.15000000000002</v>
@@ -16395,7 +16397,7 @@
         <v>26.50000000000003</v>
       </c>
       <c r="K317" t="n">
-        <v>7.692307692307187</v>
+        <v>0</v>
       </c>
       <c r="L317" t="n">
         <v>77.15000000000002</v>
@@ -16446,7 +16448,7 @@
         <v>26.70000000000003</v>
       </c>
       <c r="K318" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>77.17000000000002</v>
@@ -16497,7 +16499,7 @@
         <v>26.70000000000003</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L319" t="n">
         <v>77.17000000000002</v>
@@ -16548,7 +16550,7 @@
         <v>26.70000000000003</v>
       </c>
       <c r="K320" t="n">
-        <v>9.090909090908387</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L320" t="n">
         <v>77.18000000000001</v>
@@ -16599,7 +16601,7 @@
         <v>26.80000000000003</v>
       </c>
       <c r="K321" t="n">
-        <v>-9.090909090908387</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>77.18000000000001</v>
@@ -16650,7 +16652,7 @@
         <v>26.80000000000003</v>
       </c>
       <c r="K322" t="n">
-        <v>11.11111111111181</v>
+        <v>33.33333333333649</v>
       </c>
       <c r="L322" t="n">
         <v>77.18000000000001</v>
@@ -16701,7 +16703,7 @@
         <v>27.00000000000003</v>
       </c>
       <c r="K323" t="n">
-        <v>20</v>
+        <v>60.00000000000227</v>
       </c>
       <c r="L323" t="n">
         <v>77.21000000000001</v>
@@ -16752,7 +16754,7 @@
         <v>27.00000000000003</v>
       </c>
       <c r="K324" t="n">
-        <v>20</v>
+        <v>60.00000000000227</v>
       </c>
       <c r="L324" t="n">
         <v>77.23999999999999</v>
@@ -16803,7 +16805,7 @@
         <v>27.10000000000004</v>
       </c>
       <c r="K325" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L325" t="n">
         <v>77.25999999999999</v>
@@ -16854,7 +16856,7 @@
         <v>27.10000000000004</v>
       </c>
       <c r="K326" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L326" t="n">
         <v>77.27999999999999</v>
@@ -16905,7 +16907,7 @@
         <v>27.20000000000005</v>
       </c>
       <c r="K327" t="n">
-        <v>27.27272727272774</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L327" t="n">
         <v>77.30999999999997</v>
@@ -17007,7 +17009,7 @@
         <v>27.40000000000003</v>
       </c>
       <c r="K329" t="n">
-        <v>9.090909090909797</v>
+        <v>14.28571428571544</v>
       </c>
       <c r="L329" t="n">
         <v>77.33999999999999</v>
@@ -17058,7 +17060,7 @@
         <v>27.50000000000004</v>
       </c>
       <c r="K330" t="n">
-        <v>9.090909090908387</v>
+        <v>14.28571428571312</v>
       </c>
       <c r="L330" t="n">
         <v>77.33999999999999</v>
@@ -17109,7 +17111,7 @@
         <v>27.60000000000005</v>
       </c>
       <c r="K331" t="n">
-        <v>16.66666666666647</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L331" t="n">
         <v>77.35999999999999</v>
@@ -17160,7 +17162,7 @@
         <v>27.60000000000005</v>
       </c>
       <c r="K332" t="n">
-        <v>16.66666666666647</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>77.37999999999997</v>
@@ -17211,7 +17213,7 @@
         <v>27.60000000000005</v>
       </c>
       <c r="K333" t="n">
-        <v>27.27272727272774</v>
+        <v>0</v>
       </c>
       <c r="L333" t="n">
         <v>77.37999999999997</v>
@@ -17262,7 +17264,7 @@
         <v>28.00000000000004</v>
       </c>
       <c r="K334" t="n">
-        <v>46.66666666666642</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L334" t="n">
         <v>77.41999999999997</v>
@@ -17313,7 +17315,7 @@
         <v>28.10000000000005</v>
       </c>
       <c r="K335" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L335" t="n">
         <v>77.47999999999998</v>
@@ -17364,7 +17366,7 @@
         <v>28.20000000000005</v>
       </c>
       <c r="K336" t="n">
-        <v>52.94117647058803</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L336" t="n">
         <v>77.54999999999998</v>
@@ -17415,7 +17417,7 @@
         <v>28.30000000000004</v>
       </c>
       <c r="K337" t="n">
-        <v>44.4444444444448</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L337" t="n">
         <v>77.59999999999998</v>
@@ -17466,7 +17468,7 @@
         <v>28.50000000000003</v>
       </c>
       <c r="K338" t="n">
-        <v>44.44444444444436</v>
+        <v>63.63636363636294</v>
       </c>
       <c r="L338" t="n">
         <v>77.65999999999998</v>
@@ -17517,7 +17519,7 @@
         <v>28.50000000000003</v>
       </c>
       <c r="K339" t="n">
-        <v>44.44444444444436</v>
+        <v>80.00000000000085</v>
       </c>
       <c r="L339" t="n">
         <v>77.72999999999999</v>
@@ -17568,7 +17570,7 @@
         <v>28.60000000000002</v>
       </c>
       <c r="K340" t="n">
-        <v>36.84210526315821</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L340" t="n">
         <v>77.79999999999998</v>
@@ -17619,7 +17621,7 @@
         <v>28.60000000000002</v>
       </c>
       <c r="K341" t="n">
-        <v>44.44444444444436</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L341" t="n">
         <v>77.85999999999999</v>
@@ -17670,7 +17672,7 @@
         <v>28.70000000000002</v>
       </c>
       <c r="K342" t="n">
-        <v>36.84210526315821</v>
+        <v>45.45454545454686</v>
       </c>
       <c r="L342" t="n">
         <v>77.91</v>
@@ -17721,7 +17723,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>36.84210526315773</v>
+        <v>33.33333333333439</v>
       </c>
       <c r="L343" t="n">
         <v>77.97999999999999</v>
@@ -17772,7 +17774,7 @@
         <v>29.09999999999999</v>
       </c>
       <c r="K344" t="n">
-        <v>23.8095238095242</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
         <v>77.98999999999999</v>
@@ -17823,7 +17825,7 @@
         <v>29.19999999999999</v>
       </c>
       <c r="K345" t="n">
-        <v>33.33333333333424</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>78</v>
@@ -17874,7 +17876,7 @@
         <v>29.49999999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>41.66666666666756</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L346" t="n">
         <v>78.03</v>
@@ -17925,7 +17927,7 @@
         <v>29.49999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>39.13043478260934</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L347" t="n">
         <v>78.06999999999999</v>
@@ -17976,7 +17978,7 @@
         <v>29.69999999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>41.66666666666756</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L348" t="n">
         <v>78.10999999999999</v>
@@ -18027,7 +18029,7 @@
         <v>29.69999999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>47.82608695652244</v>
+        <v>45.45454545454686</v>
       </c>
       <c r="L349" t="n">
         <v>78.14999999999999</v>
@@ -18078,7 +18080,7 @@
         <v>29.79999999999998</v>
       </c>
       <c r="K350" t="n">
-        <v>56.52173913043612</v>
+        <v>50.00000000000119</v>
       </c>
       <c r="L350" t="n">
         <v>78.20999999999999</v>
@@ -18129,7 +18131,7 @@
         <v>29.89999999999999</v>
       </c>
       <c r="K351" t="n">
-        <v>56.52173913043612</v>
+        <v>66.66666666666785</v>
       </c>
       <c r="L351" t="n">
         <v>78.28</v>
@@ -18180,7 +18182,7 @@
         <v>29.89999999999999</v>
       </c>
       <c r="K352" t="n">
-        <v>56.52173913043612</v>
+        <v>60.00000000000171</v>
       </c>
       <c r="L352" t="n">
         <v>78.36</v>
@@ -18231,7 +18233,7 @@
         <v>30.09999999999999</v>
       </c>
       <c r="K353" t="n">
-        <v>44.00000000000077</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L353" t="n">
         <v>78.40000000000001</v>
@@ -18282,7 +18284,7 @@
         <v>30.3</v>
       </c>
       <c r="K354" t="n">
-        <v>39.13043478260972</v>
+        <v>63.6363636363634</v>
       </c>
       <c r="L354" t="n">
         <v>78.48</v>
@@ -18333,7 +18335,7 @@
         <v>30.90000000000001</v>
       </c>
       <c r="K355" t="n">
-        <v>7.142857142856853</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L355" t="n">
         <v>78.49000000000001</v>
@@ -18384,7 +18386,7 @@
         <v>31</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>-19.99999999999962</v>
       </c>
       <c r="L356" t="n">
         <v>78.46000000000001</v>
@@ -18435,7 +18437,7 @@
         <v>31.2</v>
       </c>
       <c r="K357" t="n">
-        <v>-3.448275862069303</v>
+        <v>-46.66666666666642</v>
       </c>
       <c r="L357" t="n">
         <v>78.41000000000001</v>
@@ -18486,7 +18488,7 @@
         <v>31.5</v>
       </c>
       <c r="K358" t="n">
-        <v>-20</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L358" t="n">
         <v>78.31000000000002</v>
@@ -18537,7 +18539,7 @@
         <v>31.7</v>
       </c>
       <c r="K359" t="n">
-        <v>-12.49999999999983</v>
+        <v>-47.36842105263063</v>
       </c>
       <c r="L359" t="n">
         <v>78.23000000000002</v>
@@ -18588,7 +18590,7 @@
         <v>31.7</v>
       </c>
       <c r="K360" t="n">
-        <v>-9.67741935483868</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L360" t="n">
         <v>78.14000000000001</v>
@@ -18639,7 +18641,7 @@
         <v>31.7</v>
       </c>
       <c r="K361" t="n">
-        <v>-9.67741935483868</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L361" t="n">
         <v>78.04000000000002</v>
@@ -18690,7 +18692,7 @@
         <v>31.8</v>
       </c>
       <c r="K362" t="n">
-        <v>-3.225806451613199</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L362" t="n">
         <v>77.95000000000002</v>
@@ -18741,7 +18743,7 @@
         <v>31.8</v>
       </c>
       <c r="K363" t="n">
-        <v>-10.34482758620683</v>
+        <v>-60.00000000000038</v>
       </c>
       <c r="L363" t="n">
         <v>77.88000000000001</v>
@@ -18792,7 +18794,7 @@
         <v>31.90000000000001</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L364" t="n">
         <v>77.8</v>
@@ -18894,7 +18896,7 @@
         <v>32</v>
       </c>
       <c r="K366" t="n">
-        <v>-11.99999999999982</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L366" t="n">
         <v>77.78999999999999</v>
@@ -18945,7 +18947,7 @@
         <v>32.2</v>
       </c>
       <c r="K367" t="n">
-        <v>-18.5185185185184</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L367" t="n">
         <v>77.78999999999999</v>
@@ -18996,7 +18998,7 @@
         <v>32.3</v>
       </c>
       <c r="K368" t="n">
-        <v>-30.76923076923056</v>
+        <v>0</v>
       </c>
       <c r="L368" t="n">
         <v>77.81</v>
@@ -19047,7 +19049,7 @@
         <v>32.3</v>
       </c>
       <c r="K369" t="n">
-        <v>-30.76923076923056</v>
+        <v>0</v>
       </c>
       <c r="L369" t="n">
         <v>77.81</v>
@@ -19098,7 +19100,7 @@
         <v>32.59999999999999</v>
       </c>
       <c r="K370" t="n">
-        <v>-42.85714285714228</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L370" t="n">
         <v>77.78</v>
@@ -19149,7 +19151,7 @@
         <v>32.89999999999999</v>
       </c>
       <c r="K371" t="n">
-        <v>-33.33333333333333</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L371" t="n">
         <v>77.78</v>
@@ -19200,7 +19202,7 @@
         <v>33.19999999999999</v>
       </c>
       <c r="K372" t="n">
-        <v>-39.39393939393934</v>
+        <v>-28.57142857142814</v>
       </c>
       <c r="L372" t="n">
         <v>77.73999999999999</v>
@@ -19251,7 +19253,7 @@
         <v>33.19999999999999</v>
       </c>
       <c r="K373" t="n">
-        <v>-35.48387096774182</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L373" t="n">
         <v>77.7</v>
@@ -19302,7 +19304,7 @@
         <v>33.3</v>
       </c>
       <c r="K374" t="n">
-        <v>-46.66666666666686</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L374" t="n">
         <v>77.64</v>
@@ -19353,7 +19355,7 @@
         <v>33.59999999999999</v>
       </c>
       <c r="K375" t="n">
-        <v>-18.51851851851859</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L375" t="n">
         <v>77.59999999999999</v>
@@ -19404,7 +19406,7 @@
         <v>33.89999999999999</v>
       </c>
       <c r="K376" t="n">
-        <v>-24.13793103448293</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L376" t="n">
         <v>77.53</v>
@@ -19455,7 +19457,7 @@
         <v>34.19999999999999</v>
       </c>
       <c r="K377" t="n">
-        <v>-6.666666666666793</v>
+        <v>-5.263157894737314</v>
       </c>
       <c r="L377" t="n">
         <v>77.51000000000001</v>
@@ -19506,7 +19508,7 @@
         <v>34.19999999999999</v>
       </c>
       <c r="K378" t="n">
-        <v>3.703703703703508</v>
+        <v>-5.263157894737314</v>
       </c>
       <c r="L378" t="n">
         <v>77.5</v>
@@ -19557,7 +19559,7 @@
         <v>34.29999999999998</v>
       </c>
       <c r="K379" t="n">
-        <v>-7.69230769230786</v>
+        <v>5.882352941176175</v>
       </c>
       <c r="L379" t="n">
         <v>77.47999999999999</v>
@@ -19608,7 +19610,7 @@
         <v>34.49999999999999</v>
       </c>
       <c r="K380" t="n">
-        <v>-14.28571428571458</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L380" t="n">
         <v>77.47</v>
@@ -19659,7 +19661,7 @@
         <v>34.69999999999999</v>
       </c>
       <c r="K381" t="n">
-        <v>-6.666666666666793</v>
+        <v>6.666666666666288</v>
       </c>
       <c r="L381" t="n">
         <v>77.44999999999999</v>
@@ -19710,7 +19712,7 @@
         <v>34.89999999999999</v>
       </c>
       <c r="K382" t="n">
-        <v>-3.225806451612725</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L382" t="n">
         <v>77.47999999999999</v>
@@ -19761,7 +19763,7 @@
         <v>34.99999999999999</v>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L383" t="n">
         <v>77.52</v>
@@ -19812,7 +19814,7 @@
         <v>35.09999999999999</v>
       </c>
       <c r="K384" t="n">
-        <v>0</v>
+        <v>20.00000000000076</v>
       </c>
       <c r="L384" t="n">
         <v>77.58</v>
@@ -19863,7 +19865,7 @@
         <v>35.3</v>
       </c>
       <c r="K385" t="n">
-        <v>-9.090909090909012</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L385" t="n">
         <v>77.59</v>
@@ -19914,7 +19916,7 @@
         <v>35.39999999999999</v>
       </c>
       <c r="K386" t="n">
-        <v>-5.882352941176569</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L386" t="n">
         <v>77.64</v>
@@ -19965,7 +19967,7 @@
         <v>35.69999999999999</v>
       </c>
       <c r="K387" t="n">
-        <v>-8.571428571428525</v>
+        <v>-6.666666666666288</v>
       </c>
       <c r="L387" t="n">
         <v>77.63</v>
@@ -20016,7 +20018,7 @@
         <v>35.89999999999999</v>
       </c>
       <c r="K388" t="n">
-        <v>0</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L388" t="n">
         <v>77.64</v>
@@ -20067,7 +20069,7 @@
         <v>36</v>
       </c>
       <c r="K389" t="n">
-        <v>-2.702702702702931</v>
+        <v>19.99999999999962</v>
       </c>
       <c r="L389" t="n">
         <v>77.65000000000001</v>
@@ -20118,7 +20120,7 @@
         <v>36.09999999999999</v>
       </c>
       <c r="K390" t="n">
-        <v>2.857142857142695</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>77.67</v>
@@ -20169,7 +20171,7 @@
         <v>36.19999999999999</v>
       </c>
       <c r="K391" t="n">
-        <v>-9.090909090909012</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L391" t="n">
         <v>77.66</v>
@@ -20220,7 +20222,7 @@
         <v>36.19999999999999</v>
       </c>
       <c r="K392" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L392" t="n">
         <v>77.63</v>
@@ -20271,7 +20273,7 @@
         <v>36.39999999999998</v>
       </c>
       <c r="K393" t="n">
-        <v>6.249999999999667</v>
+        <v>-23.07692307692426</v>
       </c>
       <c r="L393" t="n">
         <v>77.61</v>
@@ -20322,7 +20324,7 @@
         <v>36.49999999999997</v>
       </c>
       <c r="K394" t="n">
-        <v>6.250000000000139</v>
+        <v>-16.66666666666726</v>
       </c>
       <c r="L394" t="n">
         <v>77.57000000000001</v>
@@ -20373,7 +20375,7 @@
         <v>36.59999999999997</v>
       </c>
       <c r="K395" t="n">
-        <v>0</v>
+        <v>-16.66666666666726</v>
       </c>
       <c r="L395" t="n">
         <v>77.56</v>
@@ -20424,7 +20426,7 @@
         <v>36.89999999999998</v>
       </c>
       <c r="K396" t="n">
-        <v>20.00000000000038</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L396" t="n">
         <v>77.57000000000001</v>
@@ -20475,7 +20477,7 @@
         <v>36.89999999999998</v>
       </c>
       <c r="K397" t="n">
-        <v>11.11111111111158</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L397" t="n">
         <v>77.61</v>
@@ -20526,7 +20528,7 @@
         <v>37.09999999999998</v>
       </c>
       <c r="K398" t="n">
-        <v>3.44827586206927</v>
+        <v>9.090909090910031</v>
       </c>
       <c r="L398" t="n">
         <v>77.61</v>
@@ -20577,7 +20579,7 @@
         <v>37.39999999999998</v>
       </c>
       <c r="K399" t="n">
-        <v>-3.225806451612725</v>
+        <v>-7.692307692307356</v>
       </c>
       <c r="L399" t="n">
         <v>77.59</v>
@@ -20628,7 +20630,7 @@
         <v>37.69999999999997</v>
       </c>
       <c r="K400" t="n">
-        <v>12.50000000000022</v>
+        <v>20</v>
       </c>
       <c r="L400" t="n">
         <v>77.61</v>
@@ -20679,7 +20681,7 @@
         <v>37.69999999999997</v>
       </c>
       <c r="K401" t="n">
-        <v>6.666666666666793</v>
+        <v>20</v>
       </c>
       <c r="L401" t="n">
         <v>77.64000000000001</v>
@@ -20730,7 +20732,7 @@
         <v>37.79999999999997</v>
       </c>
       <c r="K402" t="n">
-        <v>3.448275862068797</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L402" t="n">
         <v>77.68000000000001</v>
@@ -20781,7 +20783,7 @@
         <v>37.89999999999998</v>
       </c>
       <c r="K403" t="n">
-        <v>3.44827586206927</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L403" t="n">
         <v>77.71000000000001</v>
@@ -20832,7 +20834,7 @@
         <v>37.99999999999997</v>
       </c>
       <c r="K404" t="n">
-        <v>3.448275862068797</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L404" t="n">
         <v>77.76000000000001</v>
@@ -20883,7 +20885,7 @@
         <v>37.99999999999997</v>
       </c>
       <c r="K405" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L405" t="n">
         <v>77.8</v>
@@ -20934,7 +20936,7 @@
         <v>37.99999999999997</v>
       </c>
       <c r="K406" t="n">
-        <v>7.69230769230786</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L406" t="n">
         <v>77.81</v>
@@ -20985,7 +20987,7 @@
         <v>38.19999999999997</v>
       </c>
       <c r="K407" t="n">
-        <v>11.99999999999996</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L407" t="n">
         <v>77.8</v>
@@ -21036,7 +21038,7 @@
         <v>38.39999999999998</v>
       </c>
       <c r="K408" t="n">
-        <v>11.99999999999996</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L408" t="n">
         <v>77.83</v>
@@ -21087,7 +21089,7 @@
         <v>38.49999999999997</v>
       </c>
       <c r="K409" t="n">
-        <v>12.00000000000059</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L409" t="n">
         <v>77.88</v>
@@ -21138,7 +21140,7 @@
         <v>38.49999999999997</v>
       </c>
       <c r="K410" t="n">
-        <v>16.66666666666706</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L410" t="n">
         <v>77.89999999999999</v>
@@ -21189,7 +21191,7 @@
         <v>38.69999999999997</v>
       </c>
       <c r="K411" t="n">
-        <v>11.99999999999996</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L411" t="n">
         <v>77.89999999999999</v>
@@ -21240,7 +21242,7 @@
         <v>38.89999999999998</v>
       </c>
       <c r="K412" t="n">
-        <v>18.51851851851859</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>77.91</v>
@@ -21291,7 +21293,7 @@
         <v>39.19999999999999</v>
       </c>
       <c r="K413" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L413" t="n">
         <v>77.88</v>
@@ -21342,7 +21344,7 @@
         <v>39.19999999999999</v>
       </c>
       <c r="K414" t="n">
-        <v>3.70370370370347</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L414" t="n">
         <v>77.84</v>
@@ -21393,7 +21395,7 @@
         <v>39.19999999999999</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L415" t="n">
         <v>77.8</v>
@@ -21444,7 +21446,7 @@
         <v>39.19999999999999</v>
       </c>
       <c r="K416" t="n">
-        <v>-13.04347826086999</v>
+        <v>-20</v>
       </c>
       <c r="L416" t="n">
         <v>77.76000000000001</v>
@@ -21495,7 +21497,7 @@
         <v>39.19999999999999</v>
       </c>
       <c r="K417" t="n">
-        <v>-13.04347826086999</v>
+        <v>-50</v>
       </c>
       <c r="L417" t="n">
         <v>77.74000000000001</v>
@@ -21546,7 +21548,7 @@
         <v>39.29999999999998</v>
       </c>
       <c r="K418" t="n">
-        <v>-9.090909090909207</v>
+        <v>-50</v>
       </c>
       <c r="L418" t="n">
         <v>77.69000000000001</v>
@@ -21597,7 +21599,7 @@
         <v>39.29999999999998</v>
       </c>
       <c r="K419" t="n">
-        <v>5.263157894736527</v>
+        <v>-50</v>
       </c>
       <c r="L419" t="n">
         <v>77.65000000000001</v>
@@ -21648,7 +21650,7 @@
         <v>39.29999999999998</v>
       </c>
       <c r="K420" t="n">
-        <v>-12.50000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L420" t="n">
         <v>77.61000000000001</v>
@@ -21699,7 +21701,7 @@
         <v>39.59999999999998</v>
       </c>
       <c r="K421" t="n">
-        <v>5.263157894736527</v>
+        <v>-14.28571428571544</v>
       </c>
       <c r="L421" t="n">
         <v>77.62</v>
@@ -21750,7 +21752,7 @@
         <v>39.59999999999998</v>
       </c>
       <c r="K422" t="n">
-        <v>0</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L422" t="n">
         <v>77.61</v>
@@ -21801,7 +21803,7 @@
         <v>39.69999999999997</v>
       </c>
       <c r="K423" t="n">
-        <v>-11.11111111111129</v>
+        <v>20.00000000000227</v>
       </c>
       <c r="L423" t="n">
         <v>77.62</v>
@@ -21852,7 +21854,7 @@
         <v>39.89999999999998</v>
       </c>
       <c r="K424" t="n">
-        <v>-5.263157894736527</v>
+        <v>42.85714285714518</v>
       </c>
       <c r="L424" t="n">
         <v>77.65000000000001</v>
@@ -21903,7 +21905,7 @@
         <v>39.89999999999998</v>
       </c>
       <c r="K425" t="n">
-        <v>-5.263157894736527</v>
+        <v>42.85714285714518</v>
       </c>
       <c r="L425" t="n">
         <v>77.67999999999999</v>
@@ -21954,7 +21956,7 @@
         <v>40.19999999999997</v>
       </c>
       <c r="K426" t="n">
-        <v>9.090909090909207</v>
+        <v>60.00000000000171</v>
       </c>
       <c r="L426" t="n">
         <v>77.73999999999999</v>
@@ -22005,7 +22007,7 @@
         <v>40.29999999999998</v>
       </c>
       <c r="K427" t="n">
-        <v>14.28571428571409</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L427" t="n">
         <v>77.78999999999999</v>
@@ -22056,7 +22058,7 @@
         <v>40.29999999999998</v>
       </c>
       <c r="K428" t="n">
-        <v>5.263157894736527</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L428" t="n">
         <v>77.84999999999999</v>
@@ -22107,7 +22109,7 @@
         <v>40.39999999999998</v>
       </c>
       <c r="K429" t="n">
-        <v>5.263157894736527</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L429" t="n">
         <v>77.90000000000001</v>
@@ -22158,7 +22160,7 @@
         <v>40.59999999999998</v>
       </c>
       <c r="K430" t="n">
-        <v>14.28571428571409</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L430" t="n">
         <v>77.97</v>
@@ -22209,7 +22211,7 @@
         <v>40.69999999999999</v>
       </c>
       <c r="K431" t="n">
-        <v>19.99999999999943</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L431" t="n">
         <v>78.00000000000001</v>
@@ -22260,7 +22262,7 @@
         <v>40.8</v>
       </c>
       <c r="K432" t="n">
-        <v>15.78947368421021</v>
+        <v>45.45454545454452</v>
       </c>
       <c r="L432" t="n">
         <v>78.04000000000002</v>
@@ -22311,7 +22313,7 @@
         <v>41</v>
       </c>
       <c r="K433" t="n">
-        <v>44.4444444444448</v>
+        <v>45.45454545454452</v>
       </c>
       <c r="L433" t="n">
         <v>78.11000000000001</v>
@@ -22362,7 +22364,7 @@
         <v>41.19999999999999</v>
       </c>
       <c r="K434" t="n">
-        <v>50</v>
+        <v>53.8461538461525</v>
       </c>
       <c r="L434" t="n">
         <v>78.18000000000002</v>
@@ -22413,7 +22415,7 @@
         <v>41.39999999999999</v>
       </c>
       <c r="K435" t="n">
-        <v>54.54545454545461</v>
+        <v>49.99999999999882</v>
       </c>
       <c r="L435" t="n">
         <v>78.27000000000001</v>
@@ -22464,7 +22466,7 @@
         <v>41.89999999999999</v>
       </c>
       <c r="K436" t="n">
-        <v>25.925925925926</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L436" t="n">
         <v>78.28</v>
@@ -22515,7 +22517,7 @@
         <v>42</v>
       </c>
       <c r="K437" t="n">
-        <v>28.57142857142886</v>
+        <v>17.6470588235299</v>
       </c>
       <c r="L437" t="n">
         <v>78.31</v>
@@ -22566,7 +22568,7 @@
         <v>42.3</v>
       </c>
       <c r="K438" t="n">
-        <v>39.99999999999991</v>
+        <v>36.84210526315766</v>
       </c>
       <c r="L438" t="n">
         <v>78.37</v>
@@ -22617,7 +22619,7 @@
         <v>42.3</v>
       </c>
       <c r="K439" t="n">
-        <v>39.99999999999991</v>
+        <v>29.41176470588206</v>
       </c>
       <c r="L439" t="n">
         <v>78.44000000000001</v>
@@ -22668,7 +22670,7 @@
         <v>42.3</v>
       </c>
       <c r="K440" t="n">
-        <v>39.99999999999991</v>
+        <v>37.50000000000033</v>
       </c>
       <c r="L440" t="n">
         <v>78.49000000000001</v>
@@ -22770,7 +22772,7 @@
         <v>42.5</v>
       </c>
       <c r="K442" t="n">
-        <v>37.93103448275865</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L442" t="n">
         <v>78.62</v>
@@ -22821,7 +22823,7 @@
         <v>42.59999999999999</v>
       </c>
       <c r="K443" t="n">
-        <v>44.82758620689615</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L443" t="n">
         <v>78.68000000000001</v>
@@ -22872,7 +22874,7 @@
         <v>42.89999999999999</v>
       </c>
       <c r="K444" t="n">
-        <v>26.66666666666644</v>
+        <v>-6.666666666666288</v>
       </c>
       <c r="L444" t="n">
         <v>78.69000000000001</v>
@@ -22923,7 +22925,7 @@
         <v>42.89999999999999</v>
       </c>
       <c r="K445" t="n">
-        <v>26.66666666666644</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L445" t="n">
         <v>78.68000000000002</v>
@@ -22974,7 +22976,7 @@
         <v>42.89999999999999</v>
       </c>
       <c r="K446" t="n">
-        <v>18.5185185185184</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L446" t="n">
         <v>78.72000000000003</v>
@@ -23025,7 +23027,7 @@
         <v>43.09999999999999</v>
       </c>
       <c r="K447" t="n">
-        <v>28.57142857142886</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L447" t="n">
         <v>78.77000000000002</v>
@@ -23076,7 +23078,7 @@
         <v>43.3</v>
       </c>
       <c r="K448" t="n">
-        <v>20.00000000000019</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>78.77000000000002</v>
@@ -23127,7 +23129,7 @@
         <v>43.40000000000001</v>
       </c>
       <c r="K449" t="n">
-        <v>19.99999999999962</v>
+        <v>-9.090909090909797</v>
       </c>
       <c r="L449" t="n">
         <v>78.76000000000002</v>
@@ -23178,7 +23180,7 @@
         <v>43.5</v>
       </c>
       <c r="K450" t="n">
-        <v>10.34482758620673</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L450" t="n">
         <v>78.74000000000002</v>
@@ -23229,7 +23231,7 @@
         <v>43.59999999999999</v>
       </c>
       <c r="K451" t="n">
-        <v>10.34482758620727</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L451" t="n">
         <v>78.71000000000001</v>
@@ -23280,7 +23282,7 @@
         <v>43.7</v>
       </c>
       <c r="K452" t="n">
-        <v>3.448275862068763</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L452" t="n">
         <v>78.65000000000001</v>
@@ -23331,7 +23333,7 @@
         <v>43.90000000000001</v>
       </c>
       <c r="K453" t="n">
-        <v>-10.34482758620727</v>
+        <v>-60</v>
       </c>
       <c r="L453" t="n">
         <v>78.56000000000002</v>
@@ -23382,7 +23384,7 @@
         <v>44.10000000000001</v>
       </c>
       <c r="K454" t="n">
-        <v>-10.34482758620673</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L454" t="n">
         <v>78.52000000000001</v>
@@ -23433,7 +23435,7 @@
         <v>44.30000000000001</v>
       </c>
       <c r="K455" t="n">
-        <v>-24.13793103448269</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L455" t="n">
         <v>78.46000000000001</v>
@@ -23484,7 +23486,7 @@
         <v>44.50000000000001</v>
       </c>
       <c r="K456" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L456" t="n">
         <v>78.41999999999999</v>
@@ -23535,7 +23537,7 @@
         <v>44.50000000000001</v>
       </c>
       <c r="K457" t="n">
-        <v>-4.000000000000319</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L457" t="n">
         <v>78.35999999999999</v>
@@ -23586,7 +23588,7 @@
         <v>44.60000000000002</v>
       </c>
       <c r="K458" t="n">
-        <v>-13.0434782608693</v>
+        <v>-16.66666666666548</v>
       </c>
       <c r="L458" t="n">
         <v>78.32999999999998</v>
@@ -23637,7 +23639,7 @@
         <v>44.90000000000003</v>
       </c>
       <c r="K459" t="n">
-        <v>-23.07692307692308</v>
+        <v>-28.57142857142828</v>
       </c>
       <c r="L459" t="n">
         <v>78.27999999999999</v>
@@ -23688,7 +23690,7 @@
         <v>44.90000000000003</v>
       </c>
       <c r="K460" t="n">
-        <v>-23.07692307692308</v>
+        <v>-23.07692307692324</v>
       </c>
       <c r="L460" t="n">
         <v>78.23999999999998</v>
@@ -23739,7 +23741,7 @@
         <v>45.20000000000005</v>
       </c>
       <c r="K461" t="n">
-        <v>-10.34482758620663</v>
+        <v>6.666666666667045</v>
       </c>
       <c r="L461" t="n">
         <v>78.23999999999998</v>
@@ -23790,7 +23792,7 @@
         <v>45.40000000000005</v>
       </c>
       <c r="K462" t="n">
-        <v>-24.13793103448246</v>
+        <v>6.666666666667045</v>
       </c>
       <c r="L462" t="n">
         <v>78.22999999999999</v>
@@ -23841,7 +23843,7 @@
         <v>45.50000000000006</v>
       </c>
       <c r="K463" t="n">
-        <v>-31.03448275862022</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L463" t="n">
         <v>78.22999999999999</v>
@@ -23892,7 +23894,7 @@
         <v>45.60000000000007</v>
       </c>
       <c r="K464" t="n">
-        <v>-18.51851851851801</v>
+        <v>7.692307692308028</v>
       </c>
       <c r="L464" t="n">
         <v>78.22</v>
@@ -23943,7 +23945,7 @@
         <v>45.60000000000007</v>
       </c>
       <c r="K465" t="n">
-        <v>-18.51851851851801</v>
+        <v>-9.090909090908152</v>
       </c>
       <c r="L465" t="n">
         <v>78.23</v>
@@ -23994,7 +23996,7 @@
         <v>45.60000000000007</v>
       </c>
       <c r="K466" t="n">
-        <v>-18.51851851851801</v>
+        <v>-9.090909090908152</v>
       </c>
       <c r="L466" t="n">
         <v>78.22000000000001</v>
@@ -24045,7 +24047,7 @@
         <v>45.70000000000007</v>
       </c>
       <c r="K467" t="n">
-        <v>-30.76923076923027</v>
+        <v>-27.27272727272704</v>
       </c>
       <c r="L467" t="n">
         <v>78.20000000000002</v>
@@ -24096,7 +24098,7 @@
         <v>45.80000000000008</v>
       </c>
       <c r="K468" t="n">
-        <v>-19.99999999999932</v>
+        <v>11.11111111111146</v>
       </c>
       <c r="L468" t="n">
         <v>78.18000000000004</v>
@@ -24147,7 +24149,7 @@
         <v>45.80000000000008</v>
       </c>
       <c r="K469" t="n">
-        <v>-16.66666666666578</v>
+        <v>11.11111111111146</v>
       </c>
       <c r="L469" t="n">
         <v>78.19000000000003</v>
@@ -24198,7 +24200,7 @@
         <v>45.80000000000008</v>
       </c>
       <c r="K470" t="n">
-        <v>-13.04347826086897</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L470" t="n">
         <v>78.20000000000003</v>
@@ -24249,7 +24251,7 @@
         <v>45.80000000000008</v>
       </c>
       <c r="K471" t="n">
-        <v>-9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>78.18000000000004</v>
@@ -24300,7 +24302,7 @@
         <v>46.00000000000009</v>
       </c>
       <c r="K472" t="n">
-        <v>4.347826086956736</v>
+        <v>59.99999999999886</v>
       </c>
       <c r="L472" t="n">
         <v>78.20000000000003</v>
@@ -24351,7 +24353,7 @@
         <v>46.00000000000009</v>
       </c>
       <c r="K473" t="n">
-        <v>14.28571428571428</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L473" t="n">
         <v>78.23000000000003</v>
@@ -24402,7 +24404,7 @@
         <v>46.00000000000009</v>
       </c>
       <c r="K474" t="n">
-        <v>5.263157894737079</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L474" t="n">
         <v>78.25000000000003</v>
@@ -24453,7 +24455,7 @@
         <v>46.00000000000009</v>
       </c>
       <c r="K475" t="n">
-        <v>17.64705882352931</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L475" t="n">
         <v>78.27000000000001</v>
@@ -24504,7 +24506,7 @@
         <v>46.10000000000009</v>
       </c>
       <c r="K476" t="n">
-        <v>0</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L476" t="n">
         <v>78.28</v>
@@ -24555,7 +24557,7 @@
         <v>46.40000000000009</v>
       </c>
       <c r="K477" t="n">
-        <v>-15.78947368420974</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L477" t="n">
         <v>78.27000000000001</v>
@@ -24606,7 +24608,7 @@
         <v>46.70000000000009</v>
       </c>
       <c r="K478" t="n">
-        <v>-4.761904761905019</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L478" t="n">
         <v>78.28</v>
@@ -24657,7 +24659,7 @@
         <v>46.90000000000009</v>
       </c>
       <c r="K479" t="n">
-        <v>0</v>
+        <v>-9.090909090909797</v>
       </c>
       <c r="L479" t="n">
         <v>78.27</v>
@@ -24708,7 +24710,7 @@
         <v>47.10000000000008</v>
       </c>
       <c r="K480" t="n">
-        <v>-9.090909090908387</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L480" t="n">
         <v>78.23999999999998</v>
@@ -24759,7 +24761,7 @@
         <v>47.20000000000007</v>
       </c>
       <c r="K481" t="n">
-        <v>-20</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L481" t="n">
         <v>78.21999999999998</v>
@@ -24810,7 +24812,7 @@
         <v>47.20000000000007</v>
       </c>
       <c r="K482" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L482" t="n">
         <v>78.17999999999998</v>
@@ -24861,7 +24863,7 @@
         <v>47.20000000000007</v>
       </c>
       <c r="K483" t="n">
-        <v>-5.882352941176077</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L483" t="n">
         <v>78.13999999999999</v>
@@ -24912,7 +24914,7 @@
         <v>47.20000000000007</v>
       </c>
       <c r="K484" t="n">
-        <v>-12.50000000000011</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L484" t="n">
         <v>78.09999999999999</v>
@@ -24963,7 +24965,7 @@
         <v>47.30000000000007</v>
       </c>
       <c r="K485" t="n">
-        <v>-17.64705882352921</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L485" t="n">
         <v>78.04999999999998</v>
@@ -25014,7 +25016,7 @@
         <v>47.30000000000007</v>
       </c>
       <c r="K486" t="n">
-        <v>-17.64705882352921</v>
+        <v>-11.11111111111076</v>
       </c>
       <c r="L486" t="n">
         <v>78.00999999999999</v>
@@ -25065,7 +25067,7 @@
         <v>47.30000000000007</v>
       </c>
       <c r="K487" t="n">
-        <v>-12.49999999999933</v>
+        <v>-66.66666666666745</v>
       </c>
       <c r="L487" t="n">
         <v>77.99999999999999</v>
@@ -25116,7 +25118,7 @@
         <v>47.50000000000007</v>
       </c>
       <c r="K488" t="n">
-        <v>-29.41176470588255</v>
+        <v>-66.66666666666745</v>
       </c>
       <c r="L488" t="n">
         <v>77.94</v>
@@ -25167,7 +25169,7 @@
         <v>47.50000000000007</v>
       </c>
       <c r="K489" t="n">
-        <v>-29.41176470588255</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L489" t="n">
         <v>77.90000000000001</v>
@@ -25218,7 +25220,7 @@
         <v>47.50000000000007</v>
       </c>
       <c r="K490" t="n">
-        <v>-29.41176470588255</v>
+        <v>-100</v>
       </c>
       <c r="L490" t="n">
         <v>77.88000000000001</v>
@@ -25269,7 +25271,7 @@
         <v>47.60000000000007</v>
       </c>
       <c r="K491" t="n">
-        <v>-22.22222222222275</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L491" t="n">
         <v>77.86</v>
@@ -25320,7 +25322,7 @@
         <v>47.60000000000007</v>
       </c>
       <c r="K492" t="n">
-        <v>-37.500000000001</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L492" t="n">
         <v>77.84</v>
@@ -25371,7 +25373,7 @@
         <v>47.60000000000007</v>
       </c>
       <c r="K493" t="n">
-        <v>-37.500000000001</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L493" t="n">
         <v>77.81999999999999</v>
@@ -25422,7 +25424,7 @@
         <v>47.70000000000006</v>
       </c>
       <c r="K494" t="n">
-        <v>-41.17647058823608</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L494" t="n">
         <v>77.78999999999999</v>
@@ -25473,7 +25475,7 @@
         <v>47.80000000000005</v>
       </c>
       <c r="K495" t="n">
-        <v>-33.33333333333439</v>
+        <v>-20.00000000000227</v>
       </c>
       <c r="L495" t="n">
         <v>77.78</v>
@@ -25524,7 +25526,7 @@
         <v>47.80000000000005</v>
       </c>
       <c r="K496" t="n">
-        <v>-29.41176470588304</v>
+        <v>-20.00000000000227</v>
       </c>
       <c r="L496" t="n">
         <v>77.77</v>
@@ -25575,7 +25577,7 @@
         <v>47.80000000000005</v>
       </c>
       <c r="K497" t="n">
-        <v>-14.28571428571487</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L497" t="n">
         <v>77.75999999999999</v>

--- a/BackTest/2019-10-15 BackTest XLM.xlsx
+++ b/BackTest/2019-10-15 BackTest XLM.xlsx
@@ -871,13 +871,17 @@
         <v>74.86000000000011</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -906,14 +910,22 @@
         <v>74.84666666666678</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="K15" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -941,14 +953,22 @@
         <v>74.83166666666678</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -976,14 +996,22 @@
         <v>74.81833333333344</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="K17" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1011,14 +1039,22 @@
         <v>74.80833333333344</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1046,14 +1082,22 @@
         <v>74.79833333333343</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1087,8 +1131,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,8 +1172,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1157,8 +1213,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1192,8 +1254,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1227,8 +1295,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1336,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1377,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1332,8 +1418,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1367,8 +1459,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1402,8 +1500,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1437,8 +1541,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1472,8 +1582,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1507,8 +1623,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1542,8 +1664,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1577,8 +1705,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1612,8 +1746,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1647,8 +1787,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1682,8 +1828,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1717,8 +1869,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1752,8 +1910,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1787,8 +1951,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1822,8 +1992,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1857,8 +2033,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1892,8 +2074,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1927,8 +2115,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1962,8 +2156,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1997,8 +2197,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2032,8 +2238,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2067,8 +2279,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2102,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2361,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2172,8 +2402,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2207,8 +2443,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2242,8 +2484,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2277,8 +2525,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2312,8 +2566,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2347,8 +2607,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2382,8 +2648,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2689,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2730,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2771,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2522,8 +2812,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,8 +2853,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,8 +2894,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2627,8 +2935,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2662,8 +2976,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2697,8 +3017,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +3058,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2767,8 +3099,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +3140,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2837,8 +3181,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2872,8 +3222,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2907,8 +3263,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2942,8 +3304,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2977,8 +3345,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3012,8 +3386,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3047,8 +3427,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3082,8 +3468,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3117,8 +3509,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3152,8 +3550,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3187,8 +3591,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3222,8 +3632,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3257,8 +3673,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3714,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3327,8 +3755,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3362,8 +3796,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3397,8 +3837,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3432,8 +3878,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3467,8 +3919,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3502,8 +3960,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3537,8 +4001,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3566,18 +4036,18 @@
         <v>74.56500000000004</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>74</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -3607,15 +4077,15 @@
         <v>74.5566666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>74</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3648,15 +4118,15 @@
         <v>74.54833333333337</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>74</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3689,15 +4159,15 @@
         <v>74.54000000000003</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>74</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,15 +4200,15 @@
         <v>74.53000000000003</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>74</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3771,15 +4241,15 @@
         <v>74.51666666666669</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,15 +4282,15 @@
         <v>74.50500000000002</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3859,9 +4329,11 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+        <v>73.90000000000001</v>
+      </c>
+      <c r="K98" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3894,15 +4366,15 @@
         <v>74.47666666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3935,15 +4407,15 @@
         <v>74.46333333333334</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3976,15 +4448,15 @@
         <v>74.45166666666665</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4017,15 +4489,15 @@
         <v>74.44333333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,15 +4530,15 @@
         <v>74.43166666666664</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4099,15 +4571,15 @@
         <v>74.42499999999997</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4140,15 +4612,15 @@
         <v>74.41666666666664</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4181,15 +4653,15 @@
         <v>74.41166666666665</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4222,15 +4694,15 @@
         <v>74.40833333333332</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4263,15 +4735,15 @@
         <v>74.40166666666666</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,15 +4776,15 @@
         <v>74.39666666666668</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,15 +4817,15 @@
         <v>74.39</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,15 +4858,15 @@
         <v>74.38333333333331</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4427,15 +4899,15 @@
         <v>74.37833333333332</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,15 +4940,15 @@
         <v>74.37166666666664</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4509,15 +4981,15 @@
         <v>74.37166666666664</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,15 +5022,15 @@
         <v>74.37333333333331</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4591,15 +5063,15 @@
         <v>74.37166666666664</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,15 +5104,15 @@
         <v>74.36999999999996</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4673,15 +5145,15 @@
         <v>74.36666666666663</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4714,15 +5186,15 @@
         <v>74.36499999999997</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4755,15 +5227,15 @@
         <v>74.36166666666664</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4802,7 +5274,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4841,7 +5315,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4880,7 +5356,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4919,7 +5397,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4958,7 +5438,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4997,7 +5479,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5036,7 +5520,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5075,7 +5561,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,7 +5602,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5153,7 +5643,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5192,7 +5684,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5231,7 +5725,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5270,7 +5766,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5309,7 +5807,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5348,7 +5848,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5387,7 +5889,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5426,7 +5930,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5465,7 +5971,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5504,7 +6012,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5543,7 +6053,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5582,7 +6094,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5621,7 +6135,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5660,7 +6176,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5699,7 +6217,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5738,7 +6258,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5777,7 +6299,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5816,7 +6340,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5855,7 +6381,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5894,7 +6422,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5933,7 +6463,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5972,7 +6504,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6011,7 +6545,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6050,7 +6586,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6089,7 +6627,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6128,7 +6668,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6167,7 +6709,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6206,7 +6750,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6245,7 +6791,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6284,7 +6832,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6323,7 +6873,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6362,7 +6914,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6401,7 +6955,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6440,7 +6996,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6479,7 +7037,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6518,7 +7078,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6557,7 +7119,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6596,7 +7160,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6635,7 +7201,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6674,7 +7242,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6713,7 +7283,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6752,7 +7324,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6791,7 +7365,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6830,7 +7406,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6869,7 +7447,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6908,7 +7488,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6947,7 +7529,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6986,7 +7570,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7025,7 +7611,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7064,7 +7652,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7103,7 +7693,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7142,7 +7734,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7181,7 +7775,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7220,7 +7816,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7259,7 +7857,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7298,7 +7898,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7337,7 +7939,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7376,7 +7980,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7415,7 +8021,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7454,7 +8062,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7493,7 +8103,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7532,7 +8144,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7571,7 +8185,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7610,7 +8226,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7649,7 +8267,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7688,7 +8308,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7727,7 +8349,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7766,7 +8390,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7805,7 +8431,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7844,7 +8472,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7883,7 +8513,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7922,7 +8554,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7961,7 +8595,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8000,7 +8636,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8039,7 +8677,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8078,7 +8718,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8117,7 +8759,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8156,7 +8800,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8195,7 +8841,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8234,7 +8882,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8273,7 +8923,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8312,7 +8964,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8351,7 +9005,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8390,7 +9046,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8429,7 +9087,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8468,7 +9128,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8507,7 +9169,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8546,7 +9210,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8585,7 +9251,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8624,7 +9292,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8663,7 +9333,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8702,7 +9374,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8741,7 +9415,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8780,7 +9456,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8819,7 +9497,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8858,7 +9538,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8897,7 +9579,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8936,7 +9620,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8975,7 +9661,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9014,7 +9702,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9053,7 +9743,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9092,7 +9784,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9131,7 +9825,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9170,7 +9866,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9209,7 +9907,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9248,7 +9948,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9287,7 +9989,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9326,7 +10030,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9365,7 +10071,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9404,7 +10112,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9443,7 +10153,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9482,7 +10194,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9521,7 +10235,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9560,7 +10276,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9599,7 +10317,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9638,7 +10358,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9677,7 +10399,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9716,7 +10440,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9755,7 +10481,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9794,7 +10522,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9833,7 +10563,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9872,7 +10604,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9911,7 +10645,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9950,7 +10686,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9989,7 +10727,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10028,7 +10768,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10067,7 +10809,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10106,7 +10850,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10145,7 +10891,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10184,7 +10932,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10223,7 +10973,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10262,7 +11014,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10301,7 +11055,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10340,7 +11096,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10379,7 +11137,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10418,7 +11178,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10457,7 +11219,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10496,7 +11260,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10535,7 +11301,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10574,7 +11342,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10613,7 +11383,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10652,7 +11424,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10691,7 +11465,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10730,7 +11506,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10769,7 +11547,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10808,7 +11588,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10847,7 +11629,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10886,7 +11670,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10925,7 +11711,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10964,7 +11752,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11003,7 +11793,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11042,7 +11834,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11081,7 +11875,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11120,7 +11916,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11159,7 +11957,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11198,7 +11998,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11237,7 +12039,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11276,7 +12080,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11315,7 +12121,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11354,7 +12162,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11393,7 +12203,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11432,7 +12244,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11471,7 +12285,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11510,7 +12326,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11549,7 +12367,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11588,7 +12408,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11627,13 +12449,17 @@
         <v>1</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="M296" t="n">
+        <v>1.031290322580645</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11661,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
@@ -13166,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
@@ -13621,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>

--- a/BackTest/2019-10-15 BackTest XLM.xlsx
+++ b/BackTest/2019-10-15 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>429797.2190739902</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,14 +583,10 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>75.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -620,19 +616,11 @@
         <v>437801.8269739902</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -661,19 +649,11 @@
         <v>437263.8707739902</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -702,19 +682,11 @@
         <v>364341.8707739902</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -746,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -782,19 +748,11 @@
         <v>364442.8707739902</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -826,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -865,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -904,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -943,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -982,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1021,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1060,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1099,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1138,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1177,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1216,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1255,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1294,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1333,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1369,19 +1243,11 @@
         <v>375594.9222739902</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>75</v>
-      </c>
-      <c r="J26" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1413,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1452,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1491,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1530,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1569,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1608,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1647,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1686,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1725,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1764,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1803,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1842,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1881,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1920,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1959,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1998,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2037,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2076,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2115,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2154,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2193,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2232,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2271,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2310,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2346,17 +2068,15 @@
         <v>316721.1898739903</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>74.7</v>
+      </c>
       <c r="J51" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>74.7</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2385,15 +2105,17 @@
         <v>309921.1898739903</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>74.7</v>
+      </c>
       <c r="J52" t="n">
-        <v>75.2</v>
+        <v>74.7</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2424,15 +2146,17 @@
         <v>309921.1898739903</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J53" t="n">
-        <v>75.2</v>
+        <v>74.7</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2463,17 +2187,15 @@
         <v>309921.1898739903</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J54" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2502,15 +2224,17 @@
         <v>308184.5752739903</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J55" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2541,11 +2265,13 @@
         <v>309138.5751739903</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J56" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2580,11 +2306,13 @@
         <v>309138.5751739903</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J57" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2619,11 +2347,13 @@
         <v>309138.5751739903</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J58" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2658,11 +2388,13 @@
         <v>309138.5751739903</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J59" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2697,11 +2429,13 @@
         <v>309138.5751739903</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J60" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2736,11 +2470,13 @@
         <v>309138.5751739903</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J61" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2775,13 +2511,13 @@
         <v>309138.5751739903</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2816,11 +2552,13 @@
         <v>309138.5751739903</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J63" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2855,11 +2593,13 @@
         <v>309138.5751739903</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J64" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2894,11 +2634,13 @@
         <v>311207.4011739903</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J65" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2933,11 +2675,13 @@
         <v>308910.7489739903</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>74.8</v>
+      </c>
       <c r="J66" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2972,11 +2716,13 @@
         <v>298434.0805739902</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J67" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3011,11 +2757,13 @@
         <v>295110.8396739903</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="J68" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3050,11 +2798,13 @@
         <v>304538.8396739903</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J69" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3089,11 +2839,13 @@
         <v>304538.8396739903</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J70" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3128,13 +2880,13 @@
         <v>304538.8396739903</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>74.3</v>
       </c>
       <c r="J71" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3169,13 +2921,13 @@
         <v>309879.3206739903</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>74.3</v>
       </c>
       <c r="J72" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3210,13 +2962,13 @@
         <v>309879.3206739903</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="J73" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3251,13 +3003,13 @@
         <v>282371.9696739903</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="J74" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3292,13 +3044,13 @@
         <v>273870.3464739903</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>74.2</v>
       </c>
       <c r="J75" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3333,13 +3085,13 @@
         <v>348720.1793739903</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>74.09999999999999</v>
       </c>
       <c r="J76" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3374,13 +3126,13 @@
         <v>363954.9473739903</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>74.2</v>
       </c>
       <c r="J77" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3415,13 +3167,13 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="J78" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3456,13 +3208,13 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>74.5</v>
       </c>
       <c r="J79" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3497,13 +3249,13 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>74.5</v>
       </c>
       <c r="J80" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3538,13 +3290,13 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>74.5</v>
       </c>
       <c r="J81" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3579,13 +3331,13 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>74.5</v>
       </c>
       <c r="J82" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3620,13 +3372,13 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>74.5</v>
       </c>
       <c r="J83" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3661,13 +3413,13 @@
         <v>469401.3675739903</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>74.5</v>
       </c>
       <c r="J84" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3702,13 +3454,13 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="J85" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3743,13 +3495,13 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>74.5</v>
       </c>
       <c r="J86" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3784,11 +3536,13 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J87" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3823,13 +3577,13 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>74.5</v>
       </c>
       <c r="J88" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3864,11 +3618,13 @@
         <v>500788.9466739902</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J89" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3903,11 +3659,13 @@
         <v>500788.9466739902</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>74.7</v>
+      </c>
       <c r="J90" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3942,11 +3700,13 @@
         <v>500501.2575739902</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>74.7</v>
+      </c>
       <c r="J91" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3981,11 +3741,13 @@
         <v>500501.2575739902</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J92" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4020,11 +3782,13 @@
         <v>500501.2575739902</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J93" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4059,11 +3823,13 @@
         <v>505616.1249739902</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J94" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4098,11 +3864,13 @@
         <v>505616.1249739902</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J95" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4137,11 +3905,13 @@
         <v>505616.1249739902</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J96" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4176,13 +3946,13 @@
         <v>505616.1249739902</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="J97" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4217,13 +3987,11 @@
         <v>505616.1249739902</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4258,13 +4026,11 @@
         <v>505616.1249739902</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4299,13 +4065,13 @@
         <v>505616.1249739902</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="J100" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4340,13 +4106,13 @@
         <v>492421.7799739902</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="J101" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4381,13 +4147,13 @@
         <v>492921.7799739902</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="J102" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4422,13 +4188,13 @@
         <v>480553.7799739902</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="J103" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4463,13 +4229,13 @@
         <v>505634.7717739902</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>74.3</v>
       </c>
       <c r="J104" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4504,13 +4270,11 @@
         <v>505634.7717739902</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4545,13 +4309,13 @@
         <v>505634.7717739902</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="J106" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4586,13 +4350,13 @@
         <v>505634.7717739902</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="J107" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4627,11 +4391,13 @@
         <v>505634.7717739902</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="J108" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4666,11 +4432,13 @@
         <v>526122.3940739903</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="J109" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4705,11 +4473,13 @@
         <v>526122.3940739903</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J110" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4744,11 +4514,13 @@
         <v>526122.3940739903</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J111" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4787,7 +4559,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4826,7 +4598,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4865,7 +4637,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4904,7 +4676,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4943,7 +4715,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4982,7 +4754,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5021,7 +4793,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5060,7 +4832,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5099,7 +4871,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5138,7 +4910,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5173,13 +4945,13 @@
         <v>282565.5004739903</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>74.7</v>
       </c>
       <c r="J122" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5214,13 +4986,13 @@
         <v>284976.2584739903</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>74.7</v>
       </c>
       <c r="J123" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5255,13 +5027,13 @@
         <v>284976.2584739903</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>74.8</v>
       </c>
       <c r="J124" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5296,13 +5068,13 @@
         <v>280638.1934739902</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>74.8</v>
       </c>
       <c r="J125" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5337,13 +5109,13 @@
         <v>316824.7955739903</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>74.7</v>
       </c>
       <c r="J126" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5378,11 +5150,13 @@
         <v>315651.1955739903</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="J127" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5417,13 +5191,13 @@
         <v>315651.1955739903</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>74.8</v>
       </c>
       <c r="J128" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5458,13 +5232,13 @@
         <v>355689.6982739903</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>74.8</v>
       </c>
       <c r="J129" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5499,13 +5273,13 @@
         <v>355589.6982739903</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>74.90000000000001</v>
       </c>
       <c r="J130" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5540,13 +5314,13 @@
         <v>349689.6982739903</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>74.8</v>
       </c>
       <c r="J131" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5581,13 +5355,13 @@
         <v>371791.3540739903</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>74.7</v>
       </c>
       <c r="J132" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5622,13 +5396,13 @@
         <v>369092.3540739903</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>74.8</v>
       </c>
       <c r="J133" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5663,13 +5437,13 @@
         <v>371744.5598739903</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>74.7</v>
       </c>
       <c r="J134" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5708,7 +5482,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5743,11 +5517,13 @@
         <v>370182.8826739903</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>74.8</v>
+      </c>
       <c r="J136" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5782,13 +5558,11 @@
         <v>370182.8826739903</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5823,13 +5597,13 @@
         <v>333942.1481739903</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>74.7</v>
       </c>
       <c r="J138" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5864,13 +5638,13 @@
         <v>333942.1481739903</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="J139" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5905,13 +5679,11 @@
         <v>333942.1481739903</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5946,11 +5718,13 @@
         <v>300596.1481739903</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J141" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5985,11 +5759,13 @@
         <v>300596.1481739903</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J142" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6024,11 +5800,13 @@
         <v>300596.1481739903</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J143" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6063,11 +5841,13 @@
         <v>300596.1481739903</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J144" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6102,11 +5882,13 @@
         <v>287245.0843739903</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J145" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6141,11 +5923,13 @@
         <v>262195.9155739903</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="J146" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6180,13 +5964,13 @@
         <v>243308.1180739903</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>74.3</v>
       </c>
       <c r="J147" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6221,13 +6005,13 @@
         <v>243308.1180739903</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>74</v>
       </c>
       <c r="J148" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6262,13 +6046,13 @@
         <v>214519.2598739903</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>74</v>
       </c>
       <c r="J149" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6303,11 +6087,13 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>73.90000000000001</v>
+      </c>
       <c r="J150" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6342,11 +6128,13 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>74</v>
+      </c>
       <c r="J151" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6381,13 +6169,13 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>74</v>
       </c>
       <c r="J152" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6422,11 +6210,13 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>74</v>
+      </c>
       <c r="J153" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6461,13 +6251,13 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>74</v>
       </c>
       <c r="J154" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6502,11 +6292,13 @@
         <v>233935.1929739903</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>74</v>
+      </c>
       <c r="J155" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6541,13 +6333,13 @@
         <v>234380.1929739903</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>73.8</v>
       </c>
       <c r="J156" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6582,13 +6374,13 @@
         <v>229209.2163739903</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>73.90000000000001</v>
       </c>
       <c r="J157" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6623,11 +6415,13 @@
         <v>234451.6414739903</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>73.7</v>
+      </c>
       <c r="J158" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6662,13 +6456,13 @@
         <v>234451.6414739903</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>73.8</v>
       </c>
       <c r="J159" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6703,11 +6497,13 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>73.8</v>
+      </c>
       <c r="J160" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6742,11 +6538,13 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>73.90000000000001</v>
+      </c>
       <c r="J161" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6781,11 +6579,13 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>73.90000000000001</v>
+      </c>
       <c r="J162" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6820,13 +6620,13 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>73.90000000000001</v>
       </c>
       <c r="J163" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6861,13 +6661,13 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>73.90000000000001</v>
       </c>
       <c r="J164" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6902,13 +6702,13 @@
         <v>255280.0374739903</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>73.90000000000001</v>
       </c>
       <c r="J165" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6943,11 +6743,13 @@
         <v>256965.4147739903</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="J166" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6982,11 +6784,13 @@
         <v>255272.1480739903</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>74.2</v>
+      </c>
       <c r="J167" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7021,13 +6825,13 @@
         <v>255372.1480739903</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>74</v>
       </c>
       <c r="J168" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7062,13 +6866,13 @@
         <v>267299.4147739903</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>74.09999999999999</v>
       </c>
       <c r="J169" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7103,13 +6907,13 @@
         <v>267299.4147739903</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>74.2</v>
       </c>
       <c r="J170" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7144,13 +6948,13 @@
         <v>302299.4147739903</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>74.2</v>
       </c>
       <c r="J171" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7185,13 +6989,13 @@
         <v>303105.1687739904</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>74.3</v>
       </c>
       <c r="J172" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7226,13 +7030,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="J173" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7267,13 +7071,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>74.5</v>
       </c>
       <c r="J174" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7308,13 +7112,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>74.5</v>
       </c>
       <c r="J175" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7349,13 +7153,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>74.5</v>
       </c>
       <c r="J176" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7390,13 +7194,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>74.5</v>
       </c>
       <c r="J177" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7431,13 +7235,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>74.5</v>
       </c>
       <c r="J178" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7472,13 +7276,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>74.5</v>
       </c>
       <c r="J179" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7513,13 +7317,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>74.5</v>
       </c>
       <c r="J180" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7554,13 +7358,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>74.5</v>
       </c>
       <c r="J181" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7595,13 +7399,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>74.5</v>
       </c>
       <c r="J182" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7636,13 +7440,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>74.5</v>
       </c>
       <c r="J183" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7677,13 +7481,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>74.5</v>
       </c>
       <c r="J184" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7718,13 +7522,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>74.5</v>
       </c>
       <c r="J185" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7759,13 +7563,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>74.5</v>
       </c>
       <c r="J186" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7800,13 +7604,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>74.5</v>
       </c>
       <c r="J187" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7841,13 +7645,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>74.5</v>
       </c>
       <c r="J188" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7882,13 +7686,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>74.5</v>
       </c>
       <c r="J189" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7923,13 +7727,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>74.5</v>
       </c>
       <c r="J190" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7964,13 +7768,13 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>74.5</v>
       </c>
       <c r="J191" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -8005,13 +7809,13 @@
         <v>318499.8755739904</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>74.5</v>
       </c>
       <c r="J192" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -8046,13 +7850,13 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="J193" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -8087,13 +7891,13 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>74.5</v>
       </c>
       <c r="J194" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8128,13 +7932,13 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>74.5</v>
       </c>
       <c r="J195" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8169,13 +7973,13 @@
         <v>310949.8756739904</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>74.5</v>
       </c>
       <c r="J196" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8210,13 +8014,13 @@
         <v>313808.0538739904</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="J197" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8251,13 +8055,13 @@
         <v>323678.5842739904</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>74.5</v>
       </c>
       <c r="J198" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8292,13 +8096,13 @@
         <v>330084.0024739904</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="J199" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8333,13 +8137,13 @@
         <v>330084.0024739904</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>74.8</v>
       </c>
       <c r="J200" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8374,13 +8178,13 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>74.8</v>
       </c>
       <c r="J201" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8415,13 +8219,13 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>74.90000000000001</v>
       </c>
       <c r="J202" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8456,13 +8260,13 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>74.90000000000001</v>
       </c>
       <c r="J203" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8497,13 +8301,13 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>74.90000000000001</v>
       </c>
       <c r="J204" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8538,13 +8342,13 @@
         <v>343299.4713739904</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>74.90000000000001</v>
       </c>
       <c r="J205" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8579,13 +8383,13 @@
         <v>343299.4713739904</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>75.09999999999999</v>
       </c>
       <c r="J206" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8620,13 +8424,13 @@
         <v>344999.4713739904</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>75.09999999999999</v>
       </c>
       <c r="J207" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8661,13 +8465,13 @@
         <v>409394.4684739904</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>75.2</v>
       </c>
       <c r="J208" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8702,13 +8506,13 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>75.40000000000001</v>
       </c>
       <c r="J209" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8743,13 +8547,13 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>75.59999999999999</v>
       </c>
       <c r="J210" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8784,13 +8588,13 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>75.59999999999999</v>
       </c>
       <c r="J211" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8825,13 +8629,13 @@
         <v>506830.8442739904</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>75.59999999999999</v>
       </c>
       <c r="J212" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8866,13 +8670,13 @@
         <v>553528.4942739904</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>75.7</v>
       </c>
       <c r="J213" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8907,13 +8711,13 @@
         <v>553528.4942739904</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>75.8</v>
       </c>
       <c r="J214" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8948,13 +8752,13 @@
         <v>538092.4942739904</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>75.8</v>
       </c>
       <c r="J215" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8989,13 +8793,13 @@
         <v>536785.5512739904</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>75.3</v>
       </c>
       <c r="J216" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -9030,13 +8834,13 @@
         <v>537932.5122739904</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>75.2</v>
       </c>
       <c r="J217" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -9071,13 +8875,13 @@
         <v>537932.5122739904</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>75.59999999999999</v>
       </c>
       <c r="J218" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -9112,13 +8916,13 @@
         <v>512934.8846739904</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>75.59999999999999</v>
       </c>
       <c r="J219" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -9153,13 +8957,13 @@
         <v>489038.9589739904</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>75.5</v>
       </c>
       <c r="J220" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9194,13 +8998,13 @@
         <v>468379.8616739904</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>75.3</v>
       </c>
       <c r="J221" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9235,13 +9039,13 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>75.2</v>
       </c>
       <c r="J222" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9276,13 +9080,13 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>75.3</v>
       </c>
       <c r="J223" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9317,13 +9121,13 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>75.3</v>
       </c>
       <c r="J224" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9358,13 +9162,13 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>75.3</v>
       </c>
       <c r="J225" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9399,13 +9203,13 @@
         <v>526302.8982739904</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>75.3</v>
       </c>
       <c r="J226" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9440,13 +9244,13 @@
         <v>526302.8982739904</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>75.40000000000001</v>
       </c>
       <c r="J227" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9481,11 +9285,13 @@
         <v>526302.8982739904</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="J228" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9520,11 +9326,13 @@
         <v>464968.8982739904</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="J229" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9559,13 +9367,13 @@
         <v>464968.8982739904</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>75.3</v>
       </c>
       <c r="J230" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9600,13 +9408,13 @@
         <v>559973.4234739904</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>75.3</v>
       </c>
       <c r="J231" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9641,11 +9449,13 @@
         <v>730019.3529739904</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>75.5</v>
+      </c>
       <c r="J232" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9680,11 +9490,13 @@
         <v>730019.3529739904</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>75.59999999999999</v>
+      </c>
       <c r="J233" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9723,7 +9535,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9758,11 +9570,13 @@
         <v>694340.9540739903</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>75.5</v>
+      </c>
       <c r="J235" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9801,7 +9615,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9836,11 +9650,13 @@
         <v>677224.8752739903</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="J237" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9875,11 +9691,13 @@
         <v>677224.8752739903</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="J238" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9914,11 +9732,13 @@
         <v>686885.3546739903</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="J239" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9953,11 +9773,13 @@
         <v>686885.3546739903</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>75.09999999999999</v>
+      </c>
       <c r="J240" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9992,11 +9814,13 @@
         <v>691645.8826739903</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>75.09999999999999</v>
+      </c>
       <c r="J241" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -10031,11 +9855,13 @@
         <v>691645.8826739903</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>75.2</v>
+      </c>
       <c r="J242" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -10070,11 +9896,13 @@
         <v>692145.8826739903</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>75.2</v>
+      </c>
       <c r="J243" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -10109,11 +9937,13 @@
         <v>766396.0512739903</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>75.3</v>
+      </c>
       <c r="J244" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -10152,7 +9982,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10191,7 +10021,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10230,7 +10060,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10269,7 +10099,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10308,7 +10138,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10347,7 +10177,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10386,7 +10216,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10425,7 +10255,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10464,7 +10294,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10499,11 +10329,11 @@
         <v>813967.3015739904</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10542,7 +10372,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10581,7 +10411,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10616,11 +10446,11 @@
         <v>803423.1005739904</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10655,11 +10485,11 @@
         <v>803423.1005739904</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10694,11 +10524,11 @@
         <v>809833.8932739904</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10733,11 +10563,11 @@
         <v>809251.8932739904</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10772,11 +10602,11 @@
         <v>809251.8932739904</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10811,11 +10641,11 @@
         <v>815543.8932739904</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10850,11 +10680,11 @@
         <v>810421.8905739904</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10889,11 +10719,11 @@
         <v>810421.8905739904</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10928,11 +10758,11 @@
         <v>805417.3607739904</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10967,11 +10797,11 @@
         <v>819933.8235739904</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -11010,7 +10840,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -11049,7 +10879,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -11088,7 +10918,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -11123,11 +10953,11 @@
         <v>847953.1755739904</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -11162,11 +10992,11 @@
         <v>867305.8698739904</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11205,7 +11035,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11244,7 +11074,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11283,7 +11113,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11318,11 +11148,11 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11361,7 +11191,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11396,11 +11226,11 @@
         <v>921835.7699739904</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11435,11 +11265,11 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11474,11 +11304,11 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11517,7 +11347,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11556,7 +11386,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11595,7 +11425,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11634,7 +11464,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11673,7 +11503,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11712,7 +11542,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11751,7 +11581,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11790,7 +11620,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11829,7 +11659,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11868,7 +11698,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11907,7 +11737,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11946,7 +11776,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11985,7 +11815,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -12024,7 +11854,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -12063,7 +11893,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -12102,7 +11932,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -12141,7 +11971,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -12180,7 +12010,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12219,7 +12049,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12258,7 +12088,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12297,7 +12127,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12336,7 +12166,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12375,7 +12205,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12414,7 +12244,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12453,7 +12283,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12492,7 +12322,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12531,7 +12361,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12570,7 +12400,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12609,7 +12439,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12648,7 +12478,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12687,7 +12517,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12726,7 +12556,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12765,7 +12595,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12804,7 +12634,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12843,7 +12673,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12882,7 +12712,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12921,7 +12751,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12960,7 +12790,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12999,7 +12829,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -13038,7 +12868,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -13077,7 +12907,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -13116,7 +12946,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -13155,7 +12985,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -13194,7 +13024,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13233,7 +13063,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13272,7 +13102,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13311,7 +13141,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13350,7 +13180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13389,7 +13219,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13428,7 +13258,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -13467,7 +13297,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -13506,7 +13336,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -13545,7 +13375,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13584,7 +13414,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -13623,7 +13453,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -13662,7 +13492,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13701,7 +13531,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13740,7 +13570,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13779,7 +13609,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13818,7 +13648,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13857,7 +13687,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13896,7 +13726,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13935,7 +13765,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13974,7 +13804,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -14013,7 +13843,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -14052,7 +13882,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -14091,7 +13921,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -14130,7 +13960,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -14169,7 +13999,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -14208,7 +14038,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -14247,7 +14077,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -14286,7 +14116,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -14325,7 +14155,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -14364,7 +14194,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -14399,11 +14229,11 @@
         <v>1538880.370207151</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -14438,19 +14268,19 @@
         <v>1560349.702407151</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L355" t="n">
-        <v>1.020265957446808</v>
+        <v>1</v>
       </c>
       <c r="M355" t="inlineStr"/>
     </row>
@@ -14480,8 +14310,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14513,8 +14349,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14546,8 +14388,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14576,11 +14424,17 @@
         <v>1544620.498707151</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14612,8 +14466,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14645,8 +14505,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14678,8 +14544,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14711,8 +14583,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14744,8 +14622,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14777,8 +14661,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14810,8 +14700,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14840,11 +14736,17 @@
         <v>1536810.825107151</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14876,8 +14778,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14906,11 +14814,17 @@
         <v>1534479.533107151</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14942,8 +14856,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14975,8 +14895,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15008,8 +14934,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15041,8 +14973,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15074,8 +15012,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15104,11 +15048,17 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15140,8 +15090,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15173,8 +15129,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15206,8 +15168,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15239,8 +15207,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15272,8 +15246,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15305,8 +15285,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15338,8 +15324,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15371,8 +15363,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15404,8 +15402,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15437,8 +15441,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15470,8 +15480,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15503,8 +15519,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15536,8 +15558,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15569,8 +15597,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15602,8 +15636,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15635,8 +15675,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15668,8 +15714,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15701,8 +15753,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15734,8 +15792,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15764,13 +15828,19 @@
         <v>1873787.560607151</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L395" t="n">
-        <v>1</v>
+        <v>1.040576407506703</v>
       </c>
       <c r="M395" t="inlineStr"/>
     </row>
@@ -15830,7 +15900,7 @@
         <v>2037105.682043721</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15863,7 +15933,7 @@
         <v>2037105.682043721</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15896,7 +15966,7 @@
         <v>2029265.451343721</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15929,7 +15999,7 @@
         <v>2029265.451343721</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15962,7 +16032,7 @@
         <v>2010746.228143721</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15995,7 +16065,7 @@
         <v>2066814.125743721</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -16028,7 +16098,7 @@
         <v>2053425.370243721</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -16061,7 +16131,7 @@
         <v>2060137.638743721</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16094,7 +16164,7 @@
         <v>2065650.946443721</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16160,7 +16230,7 @@
         <v>2079483.808547541</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16193,7 +16263,7 @@
         <v>2079483.808547541</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16226,7 +16296,7 @@
         <v>2089872.370747542</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16259,7 +16329,7 @@
         <v>2166092.770747541</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16292,7 +16362,7 @@
         <v>2166092.770747541</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16325,7 +16395,7 @@
         <v>2154848.743747542</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16358,7 +16428,7 @@
         <v>2397592.756447542</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16391,7 +16461,7 @@
         <v>2243073.386647542</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16424,7 +16494,7 @@
         <v>2232579.777547542</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16457,7 +16527,7 @@
         <v>2175115.356147542</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16490,7 +16560,7 @@
         <v>2089927.391247542</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16523,7 +16593,7 @@
         <v>2090027.391247542</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16556,7 +16626,7 @@
         <v>2090027.391247542</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16589,7 +16659,7 @@
         <v>2090027.391247542</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16622,7 +16692,7 @@
         <v>2090138.391247542</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16655,7 +16725,7 @@
         <v>2090138.391247542</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16688,7 +16758,7 @@
         <v>2091891.508447542</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16721,7 +16791,7 @@
         <v>2140804.071447541</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16754,7 +16824,7 @@
         <v>2140804.071447541</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16787,7 +16857,7 @@
         <v>2137395.097147542</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16820,7 +16890,7 @@
         <v>2125566.845747542</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16853,7 +16923,7 @@
         <v>2125566.845747542</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16886,7 +16956,7 @@
         <v>2122474.473647542</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16919,7 +16989,7 @@
         <v>2122484.473647542</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16952,7 +17022,7 @@
         <v>2113340.736347542</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16985,7 +17055,7 @@
         <v>2113340.736347542</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17018,7 +17088,7 @@
         <v>2103032.337347541</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17051,7 +17121,7 @@
         <v>2110932.337347541</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17084,7 +17154,7 @@
         <v>2110917.004947541</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17117,7 +17187,7 @@
         <v>2124017.004947541</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17150,7 +17220,7 @@
         <v>2124017.004947541</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17183,7 +17253,7 @@
         <v>2121375.244247541</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17216,7 +17286,7 @@
         <v>2099336.495947541</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17282,7 +17352,7 @@
         <v>2118783.420847541</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17645,7 +17715,7 @@
         <v>2063588.894009201</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17678,7 +17748,7 @@
         <v>2059488.462009201</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17711,7 +17781,7 @@
         <v>2062435.959109201</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17744,7 +17814,7 @@
         <v>2130479.469933991</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17777,7 +17847,7 @@
         <v>2130479.469933991</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17810,7 +17880,7 @@
         <v>2126389.138333991</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17843,7 +17913,7 @@
         <v>2047010.554233991</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17876,7 +17946,7 @@
         <v>2097252.00113399</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17909,7 +17979,7 @@
         <v>2097252.00113399</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17942,7 +18012,7 @@
         <v>2112136.386533991</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17975,7 +18045,7 @@
         <v>2122615.50203399</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18008,7 +18078,7 @@
         <v>2163704.86353399</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18041,7 +18111,7 @@
         <v>2163704.86353399</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18074,7 +18144,7 @@
         <v>2163704.86353399</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18107,7 +18177,7 @@
         <v>2159446.86353399</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18140,7 +18210,7 @@
         <v>2174273.248833991</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18173,7 +18243,7 @@
         <v>2167369.061233991</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18206,7 +18276,7 @@
         <v>2167369.061233991</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18239,7 +18309,7 @@
         <v>2129668.039433991</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18272,7 +18342,7 @@
         <v>2147615.620533991</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18305,7 +18375,7 @@
         <v>2115099.377133991</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18338,7 +18408,7 @@
         <v>2115099.377133991</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18371,7 +18441,7 @@
         <v>2115099.377133991</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18404,7 +18474,7 @@
         <v>2115099.377133991</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18437,7 +18507,7 @@
         <v>2115099.377133991</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18470,7 +18540,7 @@
         <v>2081286.009433991</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18503,7 +18573,7 @@
         <v>2081286.009433991</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18536,7 +18606,7 @@
         <v>2081286.009433991</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18569,7 +18639,7 @@
         <v>2086502.751633991</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18602,7 +18672,7 @@
         <v>2086502.751633991</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18635,7 +18705,7 @@
         <v>2074005.36543399</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18668,7 +18738,7 @@
         <v>2074619.514633991</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18701,7 +18771,7 @@
         <v>2074619.514633991</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18734,7 +18804,7 @@
         <v>2127505.61383079</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18767,7 +18837,7 @@
         <v>2118700.685830791</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18800,7 +18870,7 @@
         <v>2118700.685830791</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18833,7 +18903,7 @@
         <v>2086646.368530791</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18866,7 +18936,7 @@
         <v>2088446.368530791</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18899,7 +18969,7 @@
         <v>2074085.161230791</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18932,7 +19002,7 @@
         <v>2077376.126330791</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18998,7 +19068,7 @@
         <v>2131319.15903079</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19031,7 +19101,7 @@
         <v>2212076.36353079</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19064,7 +19134,7 @@
         <v>2137174.41503079</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19097,7 +19167,7 @@
         <v>2153942.298730791</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19130,7 +19200,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19163,7 +19233,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19196,7 +19266,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19229,7 +19299,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19262,7 +19332,7 @@
         <v>2224532.174414771</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19295,7 +19365,7 @@
         <v>2243703.792854011</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19328,7 +19398,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19361,7 +19431,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19394,7 +19464,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19427,7 +19497,7 @@
         <v>2243749.027254011</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19460,7 +19530,7 @@
         <v>2243599.027254011</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19493,7 +19563,7 @@
         <v>2243499.027254011</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19526,7 +19596,7 @@
         <v>2231961.783454011</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19559,7 +19629,7 @@
         <v>2226473.653354011</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19592,7 +19662,7 @@
         <v>2213741.865754011</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19625,7 +19695,7 @@
         <v>2212137.605754011</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19658,7 +19728,7 @@
         <v>2287800.116554011</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19691,7 +19761,7 @@
         <v>2268374.339554011</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19724,7 +19794,7 @@
         <v>2289167.696554011</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19757,7 +19827,7 @@
         <v>2289167.696554011</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19790,7 +19860,7 @@
         <v>2293914.078854011</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19823,7 +19893,7 @@
         <v>2239368.870954011</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19856,7 +19926,7 @@
         <v>2239368.870954011</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19889,7 +19959,7 @@
         <v>2308946.392454011</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19922,7 +19992,7 @@
         <v>2306203.392454011</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19955,7 +20025,7 @@
         <v>2293545.634654011</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19988,7 +20058,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20021,7 +20091,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20054,7 +20124,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20087,7 +20157,7 @@
         <v>2304679.008954011</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20120,7 +20190,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20252,7 +20322,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20516,7 +20586,7 @@
         <v>2360334.973454011</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20549,7 +20619,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20582,7 +20652,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20615,7 +20685,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20648,7 +20718,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20681,7 +20751,7 @@
         <v>2365814.384154011</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20714,7 +20784,7 @@
         <v>2365814.384154011</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20725,6 +20795,6 @@
       <c r="M545" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest XLM.xlsx
+++ b/BackTest/2019-10-15 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>429797.2190739902</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>429797.2190739902</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>437801.8269739902</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>437263.8707739902</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>398663.7407739902</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>398663.7407739902</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2068,14 +2068,10 @@
         <v>316721.1898739903</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2105,835 +2101,699 @@
         <v>309921.1898739903</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C53" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D53" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E53" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F53" t="n">
+        <v>704.553</v>
+      </c>
+      <c r="G53" t="n">
+        <v>309921.1898739903</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C54" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D54" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E54" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7007.8029</v>
+      </c>
+      <c r="G54" t="n">
+        <v>309921.1898739903</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C55" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E55" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1736.6146</v>
+      </c>
+      <c r="G55" t="n">
+        <v>308184.5752739903</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E56" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F56" t="n">
+        <v>953.9999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>309138.5751739903</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C57" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E57" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8724</v>
+      </c>
+      <c r="G57" t="n">
+        <v>309138.5751739903</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C58" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D58" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E58" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2488.3734</v>
+      </c>
+      <c r="G58" t="n">
+        <v>309138.5751739903</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C59" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D59" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E59" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>351.2606</v>
+      </c>
+      <c r="G59" t="n">
+        <v>309138.5751739903</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C60" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D60" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F60" t="n">
+        <v>545.366</v>
+      </c>
+      <c r="G60" t="n">
+        <v>309138.5751739903</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D61" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E61" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6147.3446</v>
+      </c>
+      <c r="G61" t="n">
+        <v>309138.5751739903</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C62" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D62" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E62" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6540.135</v>
+      </c>
+      <c r="G62" t="n">
+        <v>309138.5751739903</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C63" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D63" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E63" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>48185.5312</v>
+      </c>
+      <c r="G63" t="n">
+        <v>309138.5751739903</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C64" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D64" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F64" t="n">
+        <v>41148.6068</v>
+      </c>
+      <c r="G64" t="n">
+        <v>309138.5751739903</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2068.826</v>
+      </c>
+      <c r="G65" t="n">
+        <v>311207.4011739903</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2296.6522</v>
+      </c>
+      <c r="G66" t="n">
+        <v>308910.7489739903</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="C67" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="E67" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10476.6684</v>
+      </c>
+      <c r="G67" t="n">
+        <v>298434.0805739902</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3323.2409</v>
+      </c>
+      <c r="G68" t="n">
+        <v>295110.8396739903</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E69" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9428</v>
+      </c>
+      <c r="G69" t="n">
+        <v>304538.8396739903</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1571</v>
+      </c>
+      <c r="G70" t="n">
+        <v>304538.8396739903</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C53" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="D53" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E53" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="F53" t="n">
-        <v>704.553</v>
-      </c>
-      <c r="G53" t="n">
-        <v>309921.1898739903</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J53" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="K53" t="inlineStr">
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="C71" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E71" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>40.3768</v>
+      </c>
+      <c r="G71" t="n">
+        <v>304538.8396739903</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C54" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="D54" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E54" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="F54" t="n">
-        <v>7007.8029</v>
-      </c>
-      <c r="G54" t="n">
-        <v>309921.1898739903</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J54" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C55" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="D55" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E55" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1736.6146</v>
-      </c>
-      <c r="G55" t="n">
-        <v>308184.5752739903</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J55" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K55" t="inlineStr">
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="C72" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="D72" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="E72" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5340.481</v>
+      </c>
+      <c r="G72" t="n">
+        <v>309879.3206739903</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C56" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="D56" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E56" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="F56" t="n">
-        <v>953.9999</v>
-      </c>
-      <c r="G56" t="n">
-        <v>309138.5751739903</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C57" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="D57" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E57" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="F57" t="n">
-        <v>8724</v>
-      </c>
-      <c r="G57" t="n">
-        <v>309138.5751739903</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J57" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C58" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="D58" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E58" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2488.3734</v>
-      </c>
-      <c r="G58" t="n">
-        <v>309138.5751739903</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J58" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C59" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="D59" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E59" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="F59" t="n">
-        <v>351.2606</v>
-      </c>
-      <c r="G59" t="n">
-        <v>309138.5751739903</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J59" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C60" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="D60" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E60" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="F60" t="n">
-        <v>545.366</v>
-      </c>
-      <c r="G60" t="n">
-        <v>309138.5751739903</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J60" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="C61" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="D61" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E61" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="F61" t="n">
-        <v>6147.3446</v>
-      </c>
-      <c r="G61" t="n">
-        <v>309138.5751739903</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J61" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C62" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="D62" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E62" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6540.135</v>
-      </c>
-      <c r="G62" t="n">
-        <v>309138.5751739903</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J62" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C63" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="D63" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E63" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="F63" t="n">
-        <v>48185.5312</v>
-      </c>
-      <c r="G63" t="n">
-        <v>309138.5751739903</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J63" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C64" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="D64" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="E64" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="F64" t="n">
-        <v>41148.6068</v>
-      </c>
-      <c r="G64" t="n">
-        <v>309138.5751739903</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J64" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="C65" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="D65" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="E65" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2068.826</v>
-      </c>
-      <c r="G65" t="n">
-        <v>311207.4011739903</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J65" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="C66" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="D66" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="E66" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2296.6522</v>
-      </c>
-      <c r="G66" t="n">
-        <v>308910.7489739903</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="C67" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="D67" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="E67" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="F67" t="n">
-        <v>10476.6684</v>
-      </c>
-      <c r="G67" t="n">
-        <v>298434.0805739902</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="C68" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="D68" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="E68" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3323.2409</v>
-      </c>
-      <c r="G68" t="n">
-        <v>295110.8396739903</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="J68" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="C69" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="D69" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="E69" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="F69" t="n">
-        <v>9428</v>
-      </c>
-      <c r="G69" t="n">
-        <v>304538.8396739903</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="C70" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="D70" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="E70" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1571</v>
-      </c>
-      <c r="G70" t="n">
-        <v>304538.8396739903</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="C71" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="D71" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="E71" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="F71" t="n">
-        <v>40.3768</v>
-      </c>
-      <c r="G71" t="n">
-        <v>304538.8396739903</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="C72" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="D72" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="E72" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5340.481</v>
-      </c>
-      <c r="G72" t="n">
-        <v>309879.3206739903</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="J72" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2968,7 +2828,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="J73" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3009,7 +2869,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="J74" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3050,7 +2910,7 @@
         <v>74.2</v>
       </c>
       <c r="J75" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3091,7 +2951,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="J76" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3132,7 +2992,7 @@
         <v>74.2</v>
       </c>
       <c r="J77" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3173,7 +3033,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="J78" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3214,7 +3074,7 @@
         <v>74.5</v>
       </c>
       <c r="J79" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3255,7 +3115,7 @@
         <v>74.5</v>
       </c>
       <c r="J80" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3296,7 +3156,7 @@
         <v>74.5</v>
       </c>
       <c r="J81" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3337,7 +3197,7 @@
         <v>74.5</v>
       </c>
       <c r="J82" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3378,7 +3238,7 @@
         <v>74.5</v>
       </c>
       <c r="J83" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3419,7 +3279,7 @@
         <v>74.5</v>
       </c>
       <c r="J84" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3460,7 +3320,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="J85" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3501,7 +3361,7 @@
         <v>74.5</v>
       </c>
       <c r="J86" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3542,7 +3402,7 @@
         <v>74.5</v>
       </c>
       <c r="J87" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3583,7 +3443,7 @@
         <v>74.5</v>
       </c>
       <c r="J88" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3624,7 +3484,7 @@
         <v>74.5</v>
       </c>
       <c r="J89" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3665,7 +3525,7 @@
         <v>74.7</v>
       </c>
       <c r="J90" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3700,13 +3560,11 @@
         <v>500501.2575739902</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3741,13 +3599,11 @@
         <v>500501.2575739902</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3782,13 +3638,11 @@
         <v>500501.2575739902</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3823,13 +3677,11 @@
         <v>505616.1249739902</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3864,13 +3716,11 @@
         <v>505616.1249739902</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3905,13 +3755,11 @@
         <v>505616.1249739902</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3946,13 +3794,11 @@
         <v>505616.1249739902</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3991,7 +3837,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4030,7 +3876,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4065,13 +3911,11 @@
         <v>505616.1249739902</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4106,13 +3950,11 @@
         <v>492421.7799739902</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4147,13 +3989,11 @@
         <v>492921.7799739902</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4188,13 +4028,11 @@
         <v>480553.7799739902</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4229,13 +4067,11 @@
         <v>505634.7717739902</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4274,7 +4110,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4309,13 +4145,11 @@
         <v>505634.7717739902</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4350,13 +4184,11 @@
         <v>505634.7717739902</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4391,13 +4223,11 @@
         <v>505634.7717739902</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4432,13 +4262,11 @@
         <v>526122.3940739903</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4473,13 +4301,11 @@
         <v>526122.3940739903</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4514,13 +4340,11 @@
         <v>526122.3940739903</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4559,7 +4383,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4598,7 +4422,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4637,7 +4461,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4676,7 +4500,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4715,7 +4539,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4754,7 +4578,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4793,7 +4617,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4832,7 +4656,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4871,7 +4695,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4910,7 +4734,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4945,13 +4769,11 @@
         <v>282565.5004739903</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4986,13 +4808,11 @@
         <v>284976.2584739903</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5027,13 +4847,11 @@
         <v>284976.2584739903</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5068,13 +4886,11 @@
         <v>280638.1934739902</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5109,13 +4925,11 @@
         <v>316824.7955739903</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5150,13 +4964,11 @@
         <v>315651.1955739903</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5191,13 +5003,11 @@
         <v>315651.1955739903</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5232,13 +5042,11 @@
         <v>355689.6982739903</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5273,13 +5081,11 @@
         <v>355589.6982739903</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5314,13 +5120,11 @@
         <v>349689.6982739903</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5355,13 +5159,11 @@
         <v>371791.3540739903</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5396,13 +5198,11 @@
         <v>369092.3540739903</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5437,13 +5237,11 @@
         <v>371744.5598739903</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5482,7 +5280,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5517,13 +5315,11 @@
         <v>370182.8826739903</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5562,7 +5358,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5597,13 +5393,11 @@
         <v>333942.1481739903</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5638,13 +5432,11 @@
         <v>333942.1481739903</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5683,7 +5475,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5718,13 +5510,11 @@
         <v>300596.1481739903</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5759,13 +5549,11 @@
         <v>300596.1481739903</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5800,13 +5588,11 @@
         <v>300596.1481739903</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5841,13 +5627,11 @@
         <v>300596.1481739903</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5882,13 +5666,11 @@
         <v>287245.0843739903</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5923,13 +5705,11 @@
         <v>262195.9155739903</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5964,13 +5744,11 @@
         <v>243308.1180739903</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6005,13 +5783,11 @@
         <v>243308.1180739903</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6046,13 +5822,11 @@
         <v>214519.2598739903</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6087,13 +5861,11 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>73.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6128,13 +5900,11 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6169,13 +5939,11 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6210,13 +5978,11 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6251,13 +6017,11 @@
         <v>256433.1681739904</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6292,13 +6056,11 @@
         <v>233935.1929739903</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6333,13 +6095,11 @@
         <v>234380.1929739903</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>73.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6374,13 +6134,11 @@
         <v>229209.2163739903</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>73.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6415,13 +6173,11 @@
         <v>234451.6414739903</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>73.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6456,13 +6212,11 @@
         <v>234451.6414739903</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>73.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6497,13 +6251,11 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>73.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6538,13 +6290,11 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>73.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6585,7 +6335,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="J162" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6626,7 +6376,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="J163" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6667,7 +6417,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="J164" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6708,7 +6458,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="J165" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6749,7 +6499,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="J166" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6790,7 +6540,7 @@
         <v>74.2</v>
       </c>
       <c r="J167" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6831,7 +6581,7 @@
         <v>74</v>
       </c>
       <c r="J168" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6872,7 +6622,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="J169" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6913,7 +6663,7 @@
         <v>74.2</v>
       </c>
       <c r="J170" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6954,7 +6704,7 @@
         <v>74.2</v>
       </c>
       <c r="J171" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6995,7 +6745,7 @@
         <v>74.3</v>
       </c>
       <c r="J172" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7036,7 +6786,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="J173" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7077,7 +6827,7 @@
         <v>74.5</v>
       </c>
       <c r="J174" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7118,7 +6868,7 @@
         <v>74.5</v>
       </c>
       <c r="J175" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7159,7 +6909,7 @@
         <v>74.5</v>
       </c>
       <c r="J176" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7194,13 +6944,11 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7235,13 +6983,11 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7276,13 +7022,11 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7317,13 +7061,11 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7358,13 +7100,11 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7399,13 +7139,11 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7446,7 +7184,7 @@
         <v>74.5</v>
       </c>
       <c r="J183" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7487,7 +7225,7 @@
         <v>74.5</v>
       </c>
       <c r="J184" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7522,13 +7260,11 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7569,7 +7305,7 @@
         <v>74.5</v>
       </c>
       <c r="J186" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7604,13 +7340,11 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7651,7 +7385,7 @@
         <v>74.5</v>
       </c>
       <c r="J188" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7686,13 +7420,11 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7727,13 +7459,11 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7768,13 +7498,11 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7815,7 +7543,7 @@
         <v>74.5</v>
       </c>
       <c r="J192" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7850,13 +7578,11 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7891,13 +7617,11 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7932,13 +7656,11 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7973,13 +7695,11 @@
         <v>310949.8756739904</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8014,13 +7734,11 @@
         <v>313808.0538739904</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8055,13 +7773,11 @@
         <v>323678.5842739904</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8096,13 +7812,11 @@
         <v>330084.0024739904</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8137,13 +7851,11 @@
         <v>330084.0024739904</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8178,13 +7890,11 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8219,13 +7929,11 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8260,13 +7968,11 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8301,13 +8007,11 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8342,13 +8046,11 @@
         <v>343299.4713739904</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8383,21 +8085,19 @@
         <v>343299.4713739904</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>74.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1</v>
+        <v>1.007129380053908</v>
       </c>
       <c r="M206" t="inlineStr"/>
     </row>
@@ -8424,19 +8124,11 @@
         <v>344999.4713739904</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="J207" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8465,19 +8157,11 @@
         <v>409394.4684739904</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J208" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8506,19 +8190,11 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="J209" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8547,19 +8223,11 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J210" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8588,19 +8256,11 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J211" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8629,19 +8289,11 @@
         <v>506830.8442739904</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J212" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8670,19 +8322,11 @@
         <v>553528.4942739904</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J213" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8711,19 +8355,11 @@
         <v>553528.4942739904</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J214" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8752,19 +8388,11 @@
         <v>538092.4942739904</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J215" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8793,19 +8421,11 @@
         <v>536785.5512739904</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J216" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8834,19 +8454,11 @@
         <v>537932.5122739904</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J217" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8875,19 +8487,11 @@
         <v>537932.5122739904</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J218" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8916,19 +8520,11 @@
         <v>512934.8846739904</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J219" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8957,19 +8553,11 @@
         <v>489038.9589739904</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="J220" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8998,19 +8586,11 @@
         <v>468379.8616739904</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J221" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9039,19 +8619,11 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J222" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9080,19 +8652,11 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J223" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9121,19 +8685,11 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J224" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9162,19 +8718,11 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J225" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9203,19 +8751,11 @@
         <v>526302.8982739904</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J226" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9244,19 +8784,11 @@
         <v>526302.8982739904</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="J227" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9285,19 +8817,11 @@
         <v>526302.8982739904</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="J228" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9326,19 +8850,11 @@
         <v>464968.8982739904</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="J229" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9367,19 +8883,11 @@
         <v>464968.8982739904</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J230" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9408,19 +8916,11 @@
         <v>559973.4234739904</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J231" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9449,19 +8949,11 @@
         <v>730019.3529739904</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="J232" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9490,19 +8982,11 @@
         <v>730019.3529739904</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J233" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9531,17 +9015,11 @@
         <v>694340.9540739903</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9570,19 +9048,11 @@
         <v>694340.9540739903</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="J235" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9611,17 +9081,11 @@
         <v>687880.0624739904</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9650,19 +9114,11 @@
         <v>677224.8752739903</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="J237" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9691,19 +9147,11 @@
         <v>677224.8752739903</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J238" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9732,19 +9180,11 @@
         <v>686885.3546739903</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J239" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9773,19 +9213,11 @@
         <v>686885.3546739903</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="J240" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9814,19 +9246,11 @@
         <v>691645.8826739903</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="J241" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9855,19 +9279,11 @@
         <v>691645.8826739903</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J242" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9896,19 +9312,11 @@
         <v>692145.8826739903</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J243" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9937,19 +9345,11 @@
         <v>766396.0512739903</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J244" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9978,17 +9378,11 @@
         <v>805167.2705739903</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10017,17 +9411,11 @@
         <v>854316.8896739903</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10056,17 +9444,11 @@
         <v>842568.8671739904</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10095,17 +9477,11 @@
         <v>858915.5458739904</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10134,17 +9510,11 @@
         <v>853584.8621739903</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10173,17 +9543,11 @@
         <v>855698.8621739903</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10212,17 +9576,11 @@
         <v>854698.8621739903</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10251,17 +9609,11 @@
         <v>823871.3015739904</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10290,17 +9642,11 @@
         <v>823871.3015739904</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10329,17 +9675,11 @@
         <v>813967.3015739904</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10368,17 +9708,11 @@
         <v>813967.3015739904</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10410,14 +9744,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10449,14 +9777,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10488,14 +9810,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10527,14 +9843,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10566,14 +9876,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10605,14 +9909,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10644,14 +9942,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10683,14 +9975,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10722,14 +10008,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10761,14 +10041,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10800,14 +10074,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10839,14 +10107,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10878,14 +10140,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10917,14 +10173,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10953,17 +10203,11 @@
         <v>847953.1755739904</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10992,17 +10236,11 @@
         <v>867305.8698739904</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11031,17 +10269,11 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11070,17 +10302,11 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11109,17 +10335,11 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11151,14 +10371,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11190,14 +10404,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11229,14 +10437,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11265,17 +10467,11 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11304,17 +10500,11 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11343,17 +10533,11 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11382,17 +10566,11 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11421,17 +10599,11 @@
         <v>969341.7702739903</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11460,17 +10632,11 @@
         <v>971987.0409739903</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11499,17 +10665,11 @@
         <v>966125.0409739903</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11538,17 +10698,11 @@
         <v>966125.0409739903</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11577,17 +10731,11 @@
         <v>966125.0409739903</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11616,17 +10764,11 @@
         <v>967583.0409739903</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11655,17 +10797,11 @@
         <v>859735.8427739904</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11694,17 +10830,11 @@
         <v>913627.1188739904</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11733,17 +10863,11 @@
         <v>715151.9124739903</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11772,17 +10896,11 @@
         <v>715151.9124739903</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11811,17 +10929,11 @@
         <v>712271.9124739903</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11850,17 +10962,11 @@
         <v>711628.3124739904</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11892,14 +10998,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11931,14 +11031,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11970,14 +11064,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12009,14 +11097,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12045,17 +11127,11 @@
         <v>717332.7503739904</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12084,17 +11160,11 @@
         <v>743139.6701739904</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12123,17 +11193,11 @@
         <v>743139.6701739904</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12162,17 +11226,11 @@
         <v>743126.4775739905</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12201,17 +11259,11 @@
         <v>747883.1874739905</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12240,17 +11292,11 @@
         <v>747667.0902739905</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12279,17 +11325,11 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12318,17 +11358,11 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12357,17 +11391,11 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12396,17 +11424,11 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12435,17 +11457,11 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12474,17 +11490,11 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12513,17 +11523,11 @@
         <v>818693.9650739905</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12552,17 +11556,11 @@
         <v>818693.9650739905</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12591,17 +11589,11 @@
         <v>774661.4969739905</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12630,17 +11622,11 @@
         <v>775182.9620739905</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12669,17 +11655,11 @@
         <v>775182.9620739905</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12708,17 +11688,11 @@
         <v>762698.9620739905</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12747,17 +11721,11 @@
         <v>747706.9628739905</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12786,17 +11754,11 @@
         <v>763640.2005739906</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12825,17 +11787,11 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12864,17 +11820,11 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12903,17 +11853,11 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12942,17 +11886,11 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12981,17 +11919,11 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13020,17 +11952,11 @@
         <v>755655.1721739906</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13062,14 +11988,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13101,14 +12021,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13140,14 +12054,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13176,17 +12084,11 @@
         <v>760589.7880344907</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13218,14 +12120,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13254,17 +12150,11 @@
         <v>760535.8985344906</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13296,14 +12186,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13335,14 +12219,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13374,14 +12252,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13413,14 +12285,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13452,14 +12318,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13491,14 +12351,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13530,14 +12384,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13569,14 +12417,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13608,14 +12450,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13647,14 +12483,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13686,14 +12516,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13725,14 +12549,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13761,17 +12579,11 @@
         <v>883156.7957344906</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13800,17 +12612,11 @@
         <v>906583.3459344907</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13839,17 +12645,11 @@
         <v>993375.4988344907</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13878,17 +12678,11 @@
         <v>1107911.810834491</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13917,17 +12711,11 @@
         <v>1151258.724334491</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13956,17 +12744,11 @@
         <v>1225189.828934491</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13995,17 +12777,11 @@
         <v>1225189.828934491</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14034,17 +12810,11 @@
         <v>1225189.828934491</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14073,17 +12843,11 @@
         <v>1336033.238738111</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14112,17 +12876,11 @@
         <v>1336033.238738111</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14151,17 +12909,11 @@
         <v>1336033.238738111</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14190,17 +12942,11 @@
         <v>1592246.073372631</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14232,14 +12978,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14271,14 +13011,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14310,14 +13044,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14349,14 +13077,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14388,14 +13110,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14427,14 +13143,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14466,14 +13176,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14505,14 +13209,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14544,14 +13242,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14583,14 +13275,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14622,14 +13308,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14661,14 +13341,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14700,14 +13374,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14739,14 +13407,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14778,14 +13440,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14817,14 +13473,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14856,14 +13506,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14895,14 +13539,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14934,14 +13572,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14970,17 +13602,11 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15009,17 +13635,11 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15048,17 +13668,11 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15087,17 +13701,11 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15126,17 +13734,11 @@
         <v>1580048.001907151</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15165,17 +13767,11 @@
         <v>1580048.001907151</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15204,17 +13800,11 @@
         <v>1580048.001907151</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15243,17 +13833,11 @@
         <v>1576427.204507151</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15282,17 +13866,11 @@
         <v>1576427.204507151</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15321,17 +13899,11 @@
         <v>1661697.123907151</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15360,17 +13932,11 @@
         <v>1661697.123907151</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15399,17 +13965,11 @@
         <v>1659051.332407151</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15438,17 +13998,11 @@
         <v>1659051.332407151</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15480,14 +14034,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15519,14 +14067,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15558,14 +14100,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15597,14 +14133,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15636,14 +14166,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15675,14 +14199,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15714,14 +14232,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15753,14 +14265,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15792,14 +14298,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15828,19 +14328,13 @@
         <v>1873787.560607151</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
-        <v>1.040576407506703</v>
+        <v>1</v>
       </c>
       <c r="M395" t="inlineStr"/>
     </row>
@@ -15900,7 +14394,7 @@
         <v>2037105.682043721</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15933,7 +14427,7 @@
         <v>2037105.682043721</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -16098,7 +14592,7 @@
         <v>2053425.370243721</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -16131,7 +14625,7 @@
         <v>2060137.638743721</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16164,7 +14658,7 @@
         <v>2065650.946443721</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16230,7 +14724,7 @@
         <v>2079483.808547541</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16263,7 +14757,7 @@
         <v>2079483.808547541</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16296,7 +14790,7 @@
         <v>2089872.370747542</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16329,7 +14823,7 @@
         <v>2166092.770747541</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16362,7 +14856,7 @@
         <v>2166092.770747541</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16395,7 +14889,7 @@
         <v>2154848.743747542</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16428,7 +14922,7 @@
         <v>2397592.756447542</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16461,7 +14955,7 @@
         <v>2243073.386647542</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16494,7 +14988,7 @@
         <v>2232579.777547542</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16527,7 +15021,7 @@
         <v>2175115.356147542</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16560,7 +15054,7 @@
         <v>2089927.391247542</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16593,7 +15087,7 @@
         <v>2090027.391247542</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16626,7 +15120,7 @@
         <v>2090027.391247542</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16659,7 +15153,7 @@
         <v>2090027.391247542</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16692,7 +15186,7 @@
         <v>2090138.391247542</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16725,7 +15219,7 @@
         <v>2090138.391247542</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16758,7 +15252,7 @@
         <v>2091891.508447542</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16791,7 +15285,7 @@
         <v>2140804.071447541</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16824,7 +15318,7 @@
         <v>2140804.071447541</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16857,7 +15351,7 @@
         <v>2137395.097147542</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16890,7 +15384,7 @@
         <v>2125566.845747542</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16923,7 +15417,7 @@
         <v>2125566.845747542</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16956,7 +15450,7 @@
         <v>2122474.473647542</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16989,7 +15483,7 @@
         <v>2122484.473647542</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -17022,7 +15516,7 @@
         <v>2113340.736347542</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -17055,7 +15549,7 @@
         <v>2113340.736347542</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17088,7 +15582,7 @@
         <v>2103032.337347541</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17121,7 +15615,7 @@
         <v>2110932.337347541</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17154,7 +15648,7 @@
         <v>2110917.004947541</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17187,7 +15681,7 @@
         <v>2124017.004947541</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17220,7 +15714,7 @@
         <v>2124017.004947541</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17253,7 +15747,7 @@
         <v>2121375.244247541</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17286,7 +15780,7 @@
         <v>2099336.495947541</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17352,7 +15846,7 @@
         <v>2118783.420847541</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17715,7 +16209,7 @@
         <v>2063588.894009201</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17748,7 +16242,7 @@
         <v>2059488.462009201</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17781,7 +16275,7 @@
         <v>2062435.959109201</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17814,7 +16308,7 @@
         <v>2130479.469933991</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17847,7 +16341,7 @@
         <v>2130479.469933991</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17880,7 +16374,7 @@
         <v>2126389.138333991</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17913,7 +16407,7 @@
         <v>2047010.554233991</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17946,7 +16440,7 @@
         <v>2097252.00113399</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17979,7 +16473,7 @@
         <v>2097252.00113399</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18012,7 +16506,7 @@
         <v>2112136.386533991</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18045,7 +16539,7 @@
         <v>2122615.50203399</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18078,7 +16572,7 @@
         <v>2163704.86353399</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18111,7 +16605,7 @@
         <v>2163704.86353399</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18144,7 +16638,7 @@
         <v>2163704.86353399</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18177,7 +16671,7 @@
         <v>2159446.86353399</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18210,7 +16704,7 @@
         <v>2174273.248833991</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18243,7 +16737,7 @@
         <v>2167369.061233991</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18276,7 +16770,7 @@
         <v>2167369.061233991</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18309,7 +16803,7 @@
         <v>2129668.039433991</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18342,7 +16836,7 @@
         <v>2147615.620533991</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18375,7 +16869,7 @@
         <v>2115099.377133991</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18408,7 +16902,7 @@
         <v>2115099.377133991</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18441,7 +16935,7 @@
         <v>2115099.377133991</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18474,7 +16968,7 @@
         <v>2115099.377133991</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18507,7 +17001,7 @@
         <v>2115099.377133991</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18540,7 +17034,7 @@
         <v>2081286.009433991</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18573,7 +17067,7 @@
         <v>2081286.009433991</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18606,7 +17100,7 @@
         <v>2081286.009433991</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18639,7 +17133,7 @@
         <v>2086502.751633991</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18672,7 +17166,7 @@
         <v>2086502.751633991</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18705,7 +17199,7 @@
         <v>2074005.36543399</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18738,7 +17232,7 @@
         <v>2074619.514633991</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18771,7 +17265,7 @@
         <v>2074619.514633991</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18804,7 +17298,7 @@
         <v>2127505.61383079</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18837,7 +17331,7 @@
         <v>2118700.685830791</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18870,7 +17364,7 @@
         <v>2118700.685830791</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18903,7 +17397,7 @@
         <v>2086646.368530791</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18936,7 +17430,7 @@
         <v>2088446.368530791</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18969,7 +17463,7 @@
         <v>2074085.161230791</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19002,7 +17496,7 @@
         <v>2077376.126330791</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19068,7 +17562,7 @@
         <v>2131319.15903079</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19101,7 +17595,7 @@
         <v>2212076.36353079</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19134,7 +17628,7 @@
         <v>2137174.41503079</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19167,7 +17661,7 @@
         <v>2153942.298730791</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19200,7 +17694,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19233,7 +17727,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19266,7 +17760,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19299,7 +17793,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19332,7 +17826,7 @@
         <v>2224532.174414771</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19365,7 +17859,7 @@
         <v>2243703.792854011</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19398,7 +17892,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19431,7 +17925,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19464,7 +17958,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19497,7 +17991,7 @@
         <v>2243749.027254011</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19530,7 +18024,7 @@
         <v>2243599.027254011</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19563,7 +18057,7 @@
         <v>2243499.027254011</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19596,7 +18090,7 @@
         <v>2231961.783454011</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19629,7 +18123,7 @@
         <v>2226473.653354011</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19662,7 +18156,7 @@
         <v>2213741.865754011</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19695,7 +18189,7 @@
         <v>2212137.605754011</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19728,7 +18222,7 @@
         <v>2287800.116554011</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19761,7 +18255,7 @@
         <v>2268374.339554011</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19794,7 +18288,7 @@
         <v>2289167.696554011</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19827,7 +18321,7 @@
         <v>2289167.696554011</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19860,7 +18354,7 @@
         <v>2293914.078854011</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19893,7 +18387,7 @@
         <v>2239368.870954011</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19926,7 +18420,7 @@
         <v>2239368.870954011</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19959,7 +18453,7 @@
         <v>2308946.392454011</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19992,7 +18486,7 @@
         <v>2306203.392454011</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20025,7 +18519,7 @@
         <v>2293545.634654011</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20058,7 +18552,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20091,7 +18585,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20124,7 +18618,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20157,7 +18651,7 @@
         <v>2304679.008954011</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20586,7 +19080,7 @@
         <v>2360334.973454011</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20619,7 +19113,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20652,7 +19146,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20685,7 +19179,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20718,7 +19212,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20751,7 +19245,7 @@
         <v>2365814.384154011</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20784,7 +19278,7 @@
         <v>2365814.384154011</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20795,6 +19289,6 @@
       <c r="M545" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest XLM.xlsx
+++ b/BackTest/2019-10-15 BackTest XLM.xlsx
@@ -451,7 +451,7 @@
         <v>429797.2190739902</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>429797.2190739902</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>442968.6568739902</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>437801.8269739902</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>437263.8707739902</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>398663.7407739902</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>398663.7407739902</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2662,14 +2662,10 @@
         <v>304538.8396739903</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>74.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2699,19 +2695,11 @@
         <v>304538.8396739903</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2740,19 +2728,11 @@
         <v>304538.8396739903</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,19 +2761,11 @@
         <v>309879.3206739903</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="J72" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2822,19 +2794,11 @@
         <v>309879.3206739903</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="J73" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2863,19 +2827,11 @@
         <v>282371.9696739903</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="J74" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2904,19 +2860,11 @@
         <v>273870.3464739903</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2945,19 +2893,11 @@
         <v>348720.1793739903</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="J76" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2986,19 +2926,11 @@
         <v>363954.9473739903</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3027,19 +2959,11 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="J78" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3068,19 +2992,11 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3109,19 +3025,11 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3150,19 +3058,11 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3191,19 +3091,11 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3232,19 +3124,11 @@
         <v>469679.4185739902</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J83" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3273,19 +3157,11 @@
         <v>469401.3675739903</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3314,19 +3190,11 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="J85" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3355,19 +3223,11 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3396,19 +3256,11 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J87" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3437,19 +3289,11 @@
         <v>470695.3675739903</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3478,19 +3322,11 @@
         <v>500788.9466739902</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3519,19 +3355,11 @@
         <v>500788.9466739902</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3563,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3602,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3641,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3680,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3719,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3758,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3797,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3836,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3875,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3914,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3953,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3992,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4031,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4070,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4109,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4148,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4187,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4226,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4265,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4304,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4343,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4382,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4421,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4460,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4499,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4538,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4577,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4616,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4655,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4694,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4733,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4772,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4811,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4850,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4889,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4928,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4967,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5006,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5045,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5084,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5123,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5162,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5201,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5240,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5279,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5318,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5357,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5396,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5435,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5474,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5513,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5552,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5591,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5630,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5669,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5708,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5747,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5786,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5825,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5864,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5903,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5942,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5981,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6020,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6059,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6098,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6137,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6173,17 +5599,15 @@
         <v>234451.6414739903</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>73.7</v>
+      </c>
       <c r="J158" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>73.7</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6212,15 +5636,17 @@
         <v>234451.6414739903</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>73.8</v>
+      </c>
       <c r="J159" t="n">
-        <v>74.2</v>
+        <v>73.7</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -6251,15 +5677,17 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>73.8</v>
+      </c>
       <c r="J160" t="n">
-        <v>74.2</v>
+        <v>73.7</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -6290,17 +5718,15 @@
         <v>254280.0374739903</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>73.90000000000001</v>
+      </c>
       <c r="J161" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>73.90000000000001</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6335,11 +5761,11 @@
         <v>73.90000000000001</v>
       </c>
       <c r="J162" t="n">
-        <v>74.2</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -6376,11 +5802,11 @@
         <v>73.90000000000001</v>
       </c>
       <c r="J163" t="n">
-        <v>74.2</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -6417,13 +5843,9 @@
         <v>73.90000000000001</v>
       </c>
       <c r="J164" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>73.90000000000001</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6452,17 +5874,15 @@
         <v>255280.0374739903</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="J165" t="n">
-        <v>74.2</v>
-      </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -6493,17 +5913,15 @@
         <v>256965.4147739903</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>74.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>74.2</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -6534,19 +5952,11 @@
         <v>255272.1480739903</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="J167" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6575,19 +5985,11 @@
         <v>255372.1480739903</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>74</v>
-      </c>
-      <c r="J168" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6621,12 +6023,10 @@
       <c r="I169" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="J169" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -6662,9 +6062,7 @@
       <c r="I170" t="n">
         <v>74.2</v>
       </c>
-      <c r="J170" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6703,9 +6101,7 @@
       <c r="I171" t="n">
         <v>74.2</v>
       </c>
-      <c r="J171" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6744,9 +6140,7 @@
       <c r="I172" t="n">
         <v>74.3</v>
       </c>
-      <c r="J172" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6785,9 +6179,7 @@
       <c r="I173" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="J173" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6826,9 +6218,7 @@
       <c r="I174" t="n">
         <v>74.5</v>
       </c>
-      <c r="J174" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6867,9 +6257,7 @@
       <c r="I175" t="n">
         <v>74.5</v>
       </c>
-      <c r="J175" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6908,9 +6296,7 @@
       <c r="I176" t="n">
         <v>74.5</v>
       </c>
-      <c r="J176" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6944,12 +6330,12 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6983,12 +6369,12 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7022,12 +6408,12 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7061,12 +6447,12 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7100,12 +6486,12 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7139,12 +6525,12 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7183,9 +6569,7 @@
       <c r="I183" t="n">
         <v>74.5</v>
       </c>
-      <c r="J183" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7224,9 +6608,7 @@
       <c r="I184" t="n">
         <v>74.5</v>
       </c>
-      <c r="J184" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7260,12 +6642,12 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7304,9 +6686,7 @@
       <c r="I186" t="n">
         <v>74.5</v>
       </c>
-      <c r="J186" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7340,12 +6720,12 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7384,9 +6764,7 @@
       <c r="I188" t="n">
         <v>74.5</v>
       </c>
-      <c r="J188" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7420,12 +6798,12 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7459,12 +6837,12 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7498,12 +6876,12 @@
         <v>312699.7683739904</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7542,9 +6920,7 @@
       <c r="I192" t="n">
         <v>74.5</v>
       </c>
-      <c r="J192" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7578,12 +6954,12 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7617,12 +6993,12 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7656,12 +7032,12 @@
         <v>313499.8755739904</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7695,12 +7071,12 @@
         <v>310949.8756739904</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7734,12 +7110,12 @@
         <v>313808.0538739904</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7773,12 +7149,12 @@
         <v>323678.5842739904</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7812,12 +7188,12 @@
         <v>330084.0024739904</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7851,12 +7227,12 @@
         <v>330084.0024739904</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7890,12 +7266,12 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7929,12 +7305,12 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7968,12 +7344,12 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8007,12 +7383,12 @@
         <v>338304.2839739904</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8046,12 +7422,12 @@
         <v>343299.4713739904</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8085,19 +7461,19 @@
         <v>343299.4713739904</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>74.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1.007129380053908</v>
+        <v>1</v>
       </c>
       <c r="M206" t="inlineStr"/>
     </row>
@@ -8124,11 +7500,17 @@
         <v>344999.4713739904</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>75.09999999999999</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8157,11 +7539,17 @@
         <v>409394.4684739904</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>75.2</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8190,11 +7578,17 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8223,11 +7617,17 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>75.59999999999999</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8256,11 +7656,17 @@
         <v>491201.6737739904</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>75.59999999999999</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8289,11 +7695,17 @@
         <v>506830.8442739904</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>75.59999999999999</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8322,11 +7734,17 @@
         <v>553528.4942739904</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>75.7</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8355,11 +7773,15 @@
         <v>553528.4942739904</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8388,11 +7810,15 @@
         <v>538092.4942739904</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8421,11 +7847,15 @@
         <v>536785.5512739904</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8454,11 +7884,15 @@
         <v>537932.5122739904</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8487,11 +7921,15 @@
         <v>537932.5122739904</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8520,11 +7958,15 @@
         <v>512934.8846739904</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8553,11 +7995,15 @@
         <v>489038.9589739904</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8586,11 +8032,15 @@
         <v>468379.8616739904</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8619,11 +8069,15 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8652,11 +8106,15 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8685,11 +8143,15 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8718,11 +8180,15 @@
         <v>475537.8258739904</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8755,7 +8221,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8784,11 +8254,15 @@
         <v>526302.8982739904</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8817,11 +8291,15 @@
         <v>526302.8982739904</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8850,11 +8328,15 @@
         <v>464968.8982739904</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8883,11 +8365,15 @@
         <v>464968.8982739904</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8916,11 +8402,15 @@
         <v>559973.4234739904</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8949,11 +8439,15 @@
         <v>730019.3529739904</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8982,11 +8476,15 @@
         <v>730019.3529739904</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9015,11 +8513,15 @@
         <v>694340.9540739903</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9048,11 +8550,15 @@
         <v>694340.9540739903</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9081,11 +8587,15 @@
         <v>687880.0624739904</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9114,11 +8624,15 @@
         <v>677224.8752739903</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9147,11 +8661,15 @@
         <v>677224.8752739903</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9180,11 +8698,15 @@
         <v>686885.3546739903</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9213,11 +8735,15 @@
         <v>686885.3546739903</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9246,11 +8772,15 @@
         <v>691645.8826739903</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9279,11 +8809,15 @@
         <v>691645.8826739903</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9312,11 +8846,15 @@
         <v>692145.8826739903</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9345,11 +8883,15 @@
         <v>766396.0512739903</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9378,11 +8920,15 @@
         <v>805167.2705739903</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9411,11 +8957,15 @@
         <v>854316.8896739903</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9444,11 +8994,15 @@
         <v>842568.8671739904</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9477,11 +9031,15 @@
         <v>858915.5458739904</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9510,11 +9068,15 @@
         <v>853584.8621739903</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9543,11 +9105,15 @@
         <v>855698.8621739903</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9576,11 +9142,15 @@
         <v>854698.8621739903</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9609,11 +9179,15 @@
         <v>823871.3015739904</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9642,11 +9216,15 @@
         <v>823871.3015739904</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9675,11 +9253,15 @@
         <v>813967.3015739904</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9708,11 +9290,15 @@
         <v>813967.3015739904</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9745,7 +9331,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9778,7 +9368,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9811,7 +9405,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9844,7 +9442,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9877,7 +9479,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9910,7 +9516,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +9553,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9976,7 +9590,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10009,7 +9627,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10042,7 +9664,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10075,7 +9701,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10108,7 +9738,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10141,7 +9775,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10174,7 +9812,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10203,11 +9845,15 @@
         <v>847953.1755739904</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10236,11 +9882,15 @@
         <v>867305.8698739904</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10269,11 +9919,15 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10302,11 +9956,15 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10335,11 +9993,15 @@
         <v>865305.8699739904</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10372,7 +10034,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10405,7 +10071,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10438,7 +10108,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10467,11 +10141,15 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10500,11 +10178,15 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10533,11 +10215,15 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10566,11 +10252,15 @@
         <v>959831.0567739904</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10599,11 +10289,15 @@
         <v>969341.7702739903</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10632,11 +10326,15 @@
         <v>971987.0409739903</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10665,11 +10363,15 @@
         <v>966125.0409739903</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10698,11 +10400,15 @@
         <v>966125.0409739903</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10731,11 +10437,15 @@
         <v>966125.0409739903</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10764,11 +10474,15 @@
         <v>967583.0409739903</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10797,11 +10511,15 @@
         <v>859735.8427739904</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10830,11 +10548,15 @@
         <v>913627.1188739904</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10863,11 +10585,15 @@
         <v>715151.9124739903</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10896,11 +10622,15 @@
         <v>715151.9124739903</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10929,11 +10659,15 @@
         <v>712271.9124739903</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10962,11 +10696,15 @@
         <v>711628.3124739904</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10999,7 +10737,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11032,7 +10774,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11065,7 +10811,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11098,7 +10848,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11127,11 +10881,15 @@
         <v>717332.7503739904</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11160,11 +10918,15 @@
         <v>743139.6701739904</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11193,11 +10955,15 @@
         <v>743139.6701739904</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11226,11 +10992,15 @@
         <v>743126.4775739905</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11259,11 +11029,15 @@
         <v>747883.1874739905</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11292,11 +11066,15 @@
         <v>747667.0902739905</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11325,11 +11103,15 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11358,11 +11140,15 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11391,11 +11177,15 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11424,11 +11214,15 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11457,11 +11251,15 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11490,11 +11288,15 @@
         <v>820693.9650739905</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11523,11 +11325,15 @@
         <v>818693.9650739905</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11556,11 +11362,15 @@
         <v>818693.9650739905</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11589,11 +11399,15 @@
         <v>774661.4969739905</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11622,11 +11436,15 @@
         <v>775182.9620739905</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11655,11 +11473,15 @@
         <v>775182.9620739905</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11688,11 +11510,15 @@
         <v>762698.9620739905</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11721,11 +11547,15 @@
         <v>747706.9628739905</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11754,11 +11584,15 @@
         <v>763640.2005739906</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11787,11 +11621,15 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11820,11 +11658,15 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11853,11 +11695,15 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11886,11 +11732,15 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11919,11 +11769,15 @@
         <v>762418.2005739906</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11952,11 +11806,15 @@
         <v>755655.1721739906</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11989,7 +11847,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12022,7 +11884,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12055,7 +11921,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12084,11 +11954,15 @@
         <v>760589.7880344907</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12121,7 +11995,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12150,11 +12028,15 @@
         <v>760535.8985344906</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12187,7 +12069,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12220,7 +12106,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12253,7 +12143,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12286,7 +12180,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12319,7 +12217,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12352,7 +12254,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12385,7 +12291,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12418,7 +12328,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12451,7 +12365,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12484,7 +12402,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12517,7 +12439,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12550,7 +12476,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12579,11 +12509,15 @@
         <v>883156.7957344906</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12612,11 +12546,15 @@
         <v>906583.3459344907</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12645,11 +12583,15 @@
         <v>993375.4988344907</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12678,11 +12620,15 @@
         <v>1107911.810834491</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12711,11 +12657,15 @@
         <v>1151258.724334491</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12744,11 +12694,15 @@
         <v>1225189.828934491</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12777,11 +12731,15 @@
         <v>1225189.828934491</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12810,11 +12768,15 @@
         <v>1225189.828934491</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12843,11 +12805,15 @@
         <v>1336033.238738111</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12876,11 +12842,15 @@
         <v>1336033.238738111</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12909,11 +12879,15 @@
         <v>1336033.238738111</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12942,11 +12916,15 @@
         <v>1592246.073372631</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12979,7 +12957,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13012,7 +12994,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13045,7 +13031,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13078,7 +13068,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13111,7 +13105,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13144,7 +13142,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13177,7 +13179,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13210,7 +13216,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13243,7 +13253,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13276,7 +13290,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13309,7 +13327,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13342,7 +13364,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13375,7 +13401,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13408,7 +13438,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13441,7 +13475,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13474,7 +13512,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13507,7 +13549,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13540,7 +13586,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13573,7 +13623,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13602,11 +13656,15 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13635,11 +13693,15 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13668,11 +13730,15 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13701,11 +13767,15 @@
         <v>1533554.502907151</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13734,11 +13804,15 @@
         <v>1580048.001907151</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13767,11 +13841,15 @@
         <v>1580048.001907151</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13800,11 +13878,15 @@
         <v>1580048.001907151</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13833,11 +13915,15 @@
         <v>1576427.204507151</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13866,11 +13952,15 @@
         <v>1576427.204507151</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13899,11 +13989,15 @@
         <v>1661697.123907151</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13932,11 +14026,15 @@
         <v>1661697.123907151</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13965,11 +14063,15 @@
         <v>1659051.332407151</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13998,11 +14100,15 @@
         <v>1659051.332407151</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14035,7 +14141,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14068,7 +14178,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14101,7 +14215,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14134,7 +14252,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14167,7 +14289,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14200,7 +14326,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14233,7 +14363,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14266,7 +14400,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14299,7 +14437,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14332,7 +14474,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14365,7 +14511,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14398,7 +14548,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14427,14 +14581,16 @@
         <v>2037105.682043721</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="inlineStr"/>
     </row>
     <row r="399">
@@ -14691,7 +14847,7 @@
         <v>2065650.946443721</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14724,7 +14880,7 @@
         <v>2079483.808547541</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14757,7 +14913,7 @@
         <v>2079483.808547541</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14790,7 +14946,7 @@
         <v>2089872.370747542</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14823,7 +14979,7 @@
         <v>2166092.770747541</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14856,7 +15012,7 @@
         <v>2166092.770747541</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14889,7 +15045,7 @@
         <v>2154848.743747542</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14922,7 +15078,7 @@
         <v>2397592.756447542</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14955,7 +15111,7 @@
         <v>2243073.386647542</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14988,7 +15144,7 @@
         <v>2232579.777547542</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15087,7 +15243,7 @@
         <v>2090027.391247542</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15120,7 +15276,7 @@
         <v>2090027.391247542</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -17496,7 +17652,7 @@
         <v>2077376.126330791</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17529,7 +17685,7 @@
         <v>2106322.012530791</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17562,7 +17718,7 @@
         <v>2131319.15903079</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17595,7 +17751,7 @@
         <v>2212076.36353079</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17628,7 +17784,7 @@
         <v>2137174.41503079</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17661,7 +17817,7 @@
         <v>2153942.298730791</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17694,7 +17850,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17727,7 +17883,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17760,7 +17916,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17793,7 +17949,7 @@
         <v>2181940.080214771</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17826,7 +17982,7 @@
         <v>2224532.174414771</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17859,7 +18015,7 @@
         <v>2243703.792854011</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17892,7 +18048,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17925,7 +18081,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17958,7 +18114,7 @@
         <v>2242403.792854011</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17991,7 +18147,7 @@
         <v>2243749.027254011</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18024,7 +18180,7 @@
         <v>2243599.027254011</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18057,7 +18213,7 @@
         <v>2243499.027254011</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18090,7 +18246,7 @@
         <v>2231961.783454011</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18123,7 +18279,7 @@
         <v>2226473.653354011</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18156,7 +18312,7 @@
         <v>2213741.865754011</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18189,7 +18345,7 @@
         <v>2212137.605754011</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18222,7 +18378,7 @@
         <v>2287800.116554011</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18255,7 +18411,7 @@
         <v>2268374.339554011</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18288,7 +18444,7 @@
         <v>2289167.696554011</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18321,7 +18477,7 @@
         <v>2289167.696554011</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18354,7 +18510,7 @@
         <v>2293914.078854011</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18387,7 +18543,7 @@
         <v>2239368.870954011</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18420,7 +18576,7 @@
         <v>2239368.870954011</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18453,7 +18609,7 @@
         <v>2308946.392454011</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18486,7 +18642,7 @@
         <v>2306203.392454011</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18519,7 +18675,7 @@
         <v>2293545.634654011</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18552,7 +18708,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18585,7 +18741,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18618,7 +18774,7 @@
         <v>2309862.724654011</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18651,7 +18807,7 @@
         <v>2304679.008954011</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18684,7 +18840,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18717,7 +18873,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18750,7 +18906,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18783,7 +18939,7 @@
         <v>2407659.251154011</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18816,7 +18972,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18849,7 +19005,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18882,7 +19038,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18915,7 +19071,7 @@
         <v>2413947.191154011</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18948,7 +19104,7 @@
         <v>2410983.672654011</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18981,7 +19137,7 @@
         <v>2404458.795054012</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19014,7 +19170,7 @@
         <v>2479551.766954011</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19047,7 +19203,7 @@
         <v>2477878.729254011</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19080,7 +19236,7 @@
         <v>2360334.973454011</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19113,7 +19269,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19146,7 +19302,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19212,7 +19368,7 @@
         <v>2374014.364154011</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
